--- a/data/REL_PED Fall 22 Sched_F22.xlsx
+++ b/data/REL_PED Fall 22 Sched_F22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Master Schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Desktop/scheduling app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA6CD22-67FF-084D-A39F-C2D6629150FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21600" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,24 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Schedule!$A$1:$S$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Schedule!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1483">
   <si>
     <t>F</t>
   </si>
@@ -4565,9 +4578,6 @@
     <t>express</t>
   </si>
   <si>
-    <t>12:45AM</t>
-  </si>
-  <si>
     <t>10:20AM</t>
   </si>
   <si>
@@ -4580,7 +4590,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
@@ -5396,7 +5406,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5435,7 +5445,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2049" name="Oval 1"/>
+        <xdr:cNvPr id="2049" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5708,7 +5724,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4097" name="Oval 1"/>
+        <xdr:cNvPr id="4097" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5923,6 +5945,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5958,6 +5997,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6133,43 +6189,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:ER136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K9" sqref="K9"/>
-      <selection pane="bottomLeft" activeCell="M25" sqref="M25"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="5" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="39.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="39.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="6" customWidth="1"/>
     <col min="12" max="12" width="9" style="6" customWidth="1"/>
     <col min="13" max="13" width="6.33203125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="7.5" style="6" customWidth="1"/>
     <col min="15" max="15" width="5.33203125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="4.5546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" style="5" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="4.5" style="5" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" style="5" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.83203125" style="5" customWidth="1"/>
     <col min="19" max="19" width="28" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="7"/>
+    <col min="20" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" s="38" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -6196,7 +6252,7 @@
       <c r="R1" s="43"/>
       <c r="S1" s="43"/>
     </row>
-    <row r="2" spans="1:148" s="39" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:148" s="39" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -6219,7 +6275,7 @@
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
     </row>
-    <row r="3" spans="1:148" s="40" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:148" s="40" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>15</v>
       </c>
@@ -6270,7 +6326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="32" t="str">
         <f t="shared" ref="B4:B6" si="0">CONCATENATE(H4,I4)</f>
@@ -6321,7 +6377,7 @@
       <c r="R4" s="37"/>
       <c r="S4" s="37"/>
     </row>
-    <row r="5" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="32" t="str">
         <f t="shared" si="0"/>
@@ -6372,7 +6428,7 @@
       <c r="R5" s="37"/>
       <c r="S5" s="98"/>
     </row>
-    <row r="6" spans="1:148" s="45" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:148" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -6556,7 +6612,7 @@
       <c r="EQ6" s="32"/>
       <c r="ER6" s="32"/>
     </row>
-    <row r="7" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="32" t="str">
         <f t="shared" ref="B7:B37" si="2">CONCATENATE(H7,I7)</f>
@@ -6606,7 +6662,7 @@
       <c r="Q7" s="37"/>
       <c r="R7" s="37"/>
     </row>
-    <row r="8" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>108</v>
       </c>
@@ -6659,7 +6715,7 @@
       </c>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>110</v>
       </c>
@@ -6712,7 +6768,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="10" spans="1:148" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:148" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="32" t="str">
         <f t="shared" si="2"/>
@@ -6761,7 +6817,7 @@
       </c>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>132</v>
       </c>
@@ -6815,7 +6871,7 @@
       </c>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="32" t="str">
         <f t="shared" si="2"/>
@@ -6848,7 +6904,7 @@
         <v>1455</v>
       </c>
       <c r="L12" s="60" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="M12" s="32">
         <v>20</v>
@@ -6863,7 +6919,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="13" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="32" t="str">
         <f t="shared" si="2"/>
@@ -6912,7 +6968,7 @@
       </c>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -6966,7 +7022,7 @@
       </c>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="32" t="str">
         <f t="shared" si="2"/>
@@ -7017,7 +7073,7 @@
       </c>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="32" t="str">
         <f t="shared" si="2"/>
@@ -7068,7 +7124,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="17" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>110</v>
       </c>
@@ -7120,7 +7176,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>111</v>
       </c>
@@ -7173,7 +7229,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="19" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="32" t="str">
         <f t="shared" si="2"/>
@@ -7221,7 +7277,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="20" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="32" t="str">
         <f t="shared" si="2"/>
         <v>Salamone</v>
@@ -7271,7 +7327,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="21" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="32" t="str">
         <f t="shared" si="2"/>
         <v>Salamone</v>
@@ -7450,7 +7506,7 @@
       <c r="EQ21" s="7"/>
       <c r="ER21" s="7"/>
     </row>
-    <row r="22" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TBA</v>
@@ -7498,7 +7554,7 @@
       </c>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TBA</v>
@@ -7546,7 +7602,7 @@
       </c>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32" t="s">
         <v>71</v>
       </c>
@@ -7578,7 +7634,7 @@
         <v>6</v>
       </c>
       <c r="K24" s="60" t="s">
-        <v>1480</v>
+        <v>1458</v>
       </c>
       <c r="L24" s="60">
         <f>VLOOKUP(A24,Blocks!$A$5:$E$137,4,FALSE)</f>
@@ -7601,7 +7657,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="32" t="str">
         <f t="shared" si="2"/>
         <v>Salamone</v>
@@ -7630,10 +7686,10 @@
         <v>6</v>
       </c>
       <c r="K25" s="60" t="s">
+        <v>1481</v>
+      </c>
+      <c r="L25" s="60" t="s">
         <v>1482</v>
-      </c>
-      <c r="L25" s="60" t="s">
-        <v>1483</v>
       </c>
       <c r="M25" s="32">
         <v>24</v>
@@ -7648,7 +7704,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="26" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
         <v>82</v>
       </c>
@@ -7702,7 +7758,7 @@
       </c>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="32" t="str">
         <f t="shared" si="2"/>
         <v>TBA</v>
@@ -7750,7 +7806,7 @@
       </c>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="32" t="str">
         <f t="shared" si="2"/>
         <v>Spring</v>
@@ -7798,7 +7854,7 @@
       </c>
       <c r="S28" s="37"/>
     </row>
-    <row r="29" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32" t="s">
         <v>132</v>
       </c>
@@ -7851,7 +7907,7 @@
       </c>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7881,7 +7937,7 @@
       <c r="P30" s="33"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7910,7 +7966,7 @@
       </c>
       <c r="P31" s="33"/>
     </row>
-    <row r="32" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7940,7 +7996,7 @@
       <c r="P32" s="33"/>
       <c r="S32" s="37"/>
     </row>
-    <row r="33" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7970,7 +8026,7 @@
       <c r="P33" s="33"/>
       <c r="S33" s="37"/>
     </row>
-    <row r="34" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8000,7 +8056,7 @@
       <c r="P34" s="33"/>
       <c r="S34" s="37"/>
     </row>
-    <row r="35" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8030,7 +8086,7 @@
       <c r="P35" s="33"/>
       <c r="S35" s="98"/>
     </row>
-    <row r="36" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8060,7 +8116,7 @@
       <c r="P36" s="33"/>
       <c r="S36" s="37"/>
     </row>
-    <row r="37" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8090,7 +8146,7 @@
       <c r="P37" s="33"/>
       <c r="S37" s="37"/>
     </row>
-    <row r="38" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="32" t="str">
         <f t="shared" ref="B38:B67" si="3">CONCATENATE(H38,I38)</f>
         <v/>
@@ -8120,7 +8176,7 @@
       <c r="M38" s="33"/>
       <c r="P38" s="33"/>
     </row>
-    <row r="39" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8149,7 +8205,7 @@
       </c>
       <c r="P39" s="33"/>
     </row>
-    <row r="40" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="32"/>
       <c r="B40" s="32" t="str">
         <f t="shared" si="3"/>
@@ -8316,7 +8372,7 @@
       <c r="EQ40" s="32"/>
       <c r="ER40" s="32"/>
     </row>
-    <row r="41" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8346,7 +8402,7 @@
       <c r="M41" s="33"/>
       <c r="P41" s="33"/>
     </row>
-    <row r="42" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8377,7 +8433,7 @@
       <c r="P42" s="33"/>
       <c r="S42" s="37"/>
     </row>
-    <row r="43" spans="1:148" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:148" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8408,7 +8464,7 @@
       <c r="P43" s="33"/>
       <c r="S43" s="37"/>
     </row>
-    <row r="44" spans="1:148" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:148" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="32"/>
       <c r="B44" s="32" t="str">
         <f t="shared" si="3"/>
@@ -8576,7 +8632,7 @@
       <c r="EQ44" s="32"/>
       <c r="ER44" s="32"/>
     </row>
-    <row r="45" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8604,7 +8660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="32"/>
       <c r="B46" s="32" t="str">
         <f t="shared" si="3"/>
@@ -8771,7 +8827,7 @@
       <c r="EQ46" s="32"/>
       <c r="ER46" s="32"/>
     </row>
-    <row r="47" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8801,7 +8857,7 @@
       <c r="P47" s="33"/>
       <c r="S47" s="37"/>
     </row>
-    <row r="48" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8831,7 +8887,7 @@
       <c r="P48" s="33"/>
       <c r="S48" s="37"/>
     </row>
-    <row r="49" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8861,7 +8917,7 @@
       <c r="P49" s="33"/>
       <c r="S49" s="37"/>
     </row>
-    <row r="50" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8891,7 +8947,7 @@
       <c r="P50" s="33"/>
       <c r="S50" s="37"/>
     </row>
-    <row r="51" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8921,7 +8977,7 @@
       <c r="P51" s="33"/>
       <c r="S51" s="37"/>
     </row>
-    <row r="52" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8952,7 +9008,7 @@
       <c r="P52" s="33"/>
       <c r="S52" s="37"/>
     </row>
-    <row r="53" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -8982,7 +9038,7 @@
       <c r="M53" s="33"/>
       <c r="P53" s="33"/>
     </row>
-    <row r="54" spans="1:148" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:148" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="32"/>
       <c r="B54" s="32" t="str">
         <f t="shared" si="3"/>
@@ -9150,7 +9206,7 @@
       <c r="EQ54" s="32"/>
       <c r="ER54" s="32"/>
     </row>
-    <row r="55" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9181,7 +9237,7 @@
       <c r="P55" s="33"/>
       <c r="S55" s="37"/>
     </row>
-    <row r="56" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9211,7 +9267,7 @@
       <c r="P56" s="33"/>
       <c r="S56" s="37"/>
     </row>
-    <row r="57" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9241,7 +9297,7 @@
       <c r="M57" s="33"/>
       <c r="P57" s="33"/>
     </row>
-    <row r="58" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9271,7 +9327,7 @@
       <c r="P58" s="33"/>
       <c r="S58" s="37"/>
     </row>
-    <row r="59" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9300,7 +9356,7 @@
       </c>
       <c r="P59" s="33"/>
     </row>
-    <row r="60" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9329,7 +9385,7 @@
       </c>
       <c r="P60" s="33"/>
     </row>
-    <row r="61" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9359,7 +9415,7 @@
       <c r="P61" s="33"/>
       <c r="S61" s="37"/>
     </row>
-    <row r="62" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9389,7 +9445,7 @@
       <c r="P62" s="33"/>
       <c r="S62" s="37"/>
     </row>
-    <row r="63" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9419,7 +9475,7 @@
       <c r="P63" s="33"/>
       <c r="S63" s="37"/>
     </row>
-    <row r="64" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9449,7 +9505,7 @@
       <c r="P64" s="33"/>
       <c r="S64" s="37"/>
     </row>
-    <row r="65" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9479,7 +9535,7 @@
       <c r="P65" s="33"/>
       <c r="S65" s="37"/>
     </row>
-    <row r="66" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9638,7 +9694,7 @@
       <c r="EQ66" s="7"/>
       <c r="ER66" s="7"/>
     </row>
-    <row r="67" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="32" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9668,7 +9724,7 @@
       <c r="P67" s="33"/>
       <c r="S67" s="37"/>
     </row>
-    <row r="68" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="32" t="str">
         <f t="shared" ref="B68:B115" si="5">CONCATENATE(H68,I68)</f>
         <v/>
@@ -9698,7 +9754,7 @@
       <c r="P68" s="33"/>
       <c r="S68" s="37"/>
     </row>
-    <row r="69" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9728,7 +9784,7 @@
       <c r="P69" s="33"/>
       <c r="S69" s="37"/>
     </row>
-    <row r="70" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9757,7 +9813,7 @@
       </c>
       <c r="P70" s="33"/>
     </row>
-    <row r="71" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9786,7 +9842,7 @@
       </c>
       <c r="P71" s="33"/>
     </row>
-    <row r="72" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9815,7 +9871,7 @@
       </c>
       <c r="P72" s="33"/>
     </row>
-    <row r="73" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9844,7 +9900,7 @@
       </c>
       <c r="P73" s="33"/>
     </row>
-    <row r="74" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9874,7 +9930,7 @@
       <c r="M74" s="33"/>
       <c r="P74" s="33"/>
     </row>
-    <row r="75" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9904,7 +9960,7 @@
       <c r="M75" s="33"/>
       <c r="P75" s="33"/>
     </row>
-    <row r="76" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9934,7 +9990,7 @@
       <c r="P76" s="33"/>
       <c r="S76" s="37"/>
     </row>
-    <row r="77" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9964,7 +10020,7 @@
       <c r="M77" s="33"/>
       <c r="P77" s="33"/>
     </row>
-    <row r="78" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -9994,7 +10050,7 @@
       <c r="M78" s="33"/>
       <c r="P78" s="33"/>
     </row>
-    <row r="79" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10024,7 +10080,7 @@
       <c r="M79" s="33"/>
       <c r="P79" s="33"/>
     </row>
-    <row r="80" spans="1:148" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:148" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="32"/>
       <c r="B80" s="32" t="str">
         <f t="shared" si="5"/>
@@ -10192,7 +10248,7 @@
       <c r="EQ80" s="32"/>
       <c r="ER80" s="32"/>
     </row>
-    <row r="81" spans="1:148" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:148" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="32"/>
       <c r="B81" s="32" t="str">
         <f t="shared" si="5"/>
@@ -10360,7 +10416,7 @@
       <c r="EQ81" s="32"/>
       <c r="ER81" s="32"/>
     </row>
-    <row r="82" spans="1:148" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:148" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
       <c r="B82" s="32" t="str">
         <f t="shared" si="5"/>
@@ -10528,7 +10584,7 @@
       <c r="EQ82" s="32"/>
       <c r="ER82" s="32"/>
     </row>
-    <row r="83" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10558,7 +10614,7 @@
       <c r="P83" s="33"/>
       <c r="S83" s="37"/>
     </row>
-    <row r="84" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10588,7 +10644,7 @@
       <c r="P84" s="33"/>
       <c r="S84" s="37"/>
     </row>
-    <row r="85" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10617,7 +10673,7 @@
       </c>
       <c r="P85" s="33"/>
     </row>
-    <row r="86" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10647,7 +10703,7 @@
       <c r="P86" s="33"/>
       <c r="S86" s="37"/>
     </row>
-    <row r="87" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10677,7 +10733,7 @@
       <c r="P87" s="33"/>
       <c r="S87" s="37"/>
     </row>
-    <row r="88" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10706,7 +10762,7 @@
       </c>
       <c r="P88" s="33"/>
     </row>
-    <row r="89" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10736,7 +10792,7 @@
       <c r="P89" s="33"/>
       <c r="S89" s="37"/>
     </row>
-    <row r="90" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10766,7 +10822,7 @@
       <c r="O90" s="35"/>
       <c r="P90" s="33"/>
     </row>
-    <row r="91" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10796,7 +10852,7 @@
       <c r="P91" s="33"/>
       <c r="S91" s="37"/>
     </row>
-    <row r="92" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10826,7 +10882,7 @@
       <c r="P92" s="33"/>
       <c r="S92" s="37"/>
     </row>
-    <row r="93" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10856,7 +10912,7 @@
       <c r="P93" s="33"/>
       <c r="S93" s="37"/>
     </row>
-    <row r="94" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10886,7 +10942,7 @@
       <c r="P94" s="33"/>
       <c r="S94" s="37"/>
     </row>
-    <row r="95" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10915,7 +10971,7 @@
       </c>
       <c r="P95" s="33"/>
     </row>
-    <row r="96" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10943,7 +10999,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -10973,7 +11029,7 @@
       <c r="P97" s="33"/>
       <c r="S97" s="37"/>
     </row>
-    <row r="98" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11003,7 +11059,7 @@
       <c r="M98" s="33"/>
       <c r="P98" s="33"/>
     </row>
-    <row r="99" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11032,7 +11088,7 @@
       </c>
       <c r="P99" s="33"/>
     </row>
-    <row r="100" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11062,7 +11118,7 @@
       <c r="P100" s="33"/>
       <c r="S100" s="37"/>
     </row>
-    <row r="101" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11092,7 +11148,7 @@
       <c r="P101" s="33"/>
       <c r="S101" s="37"/>
     </row>
-    <row r="102" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11121,7 +11177,7 @@
       </c>
       <c r="P102" s="33"/>
     </row>
-    <row r="103" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11150,7 +11206,7 @@
       </c>
       <c r="P103" s="33"/>
     </row>
-    <row r="104" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11179,7 +11235,7 @@
       </c>
       <c r="P104" s="33"/>
     </row>
-    <row r="105" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11208,7 +11264,7 @@
       </c>
       <c r="P105" s="33"/>
     </row>
-    <row r="106" spans="1:148" s="48" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:148" s="48" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="32"/>
       <c r="B106" s="32" t="str">
         <f t="shared" si="5"/>
@@ -11376,7 +11432,7 @@
       <c r="EQ106" s="32"/>
       <c r="ER106" s="32"/>
     </row>
-    <row r="107" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11406,7 +11462,7 @@
       <c r="P107" s="33"/>
       <c r="S107" s="37"/>
     </row>
-    <row r="108" spans="1:148" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:148" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="32"/>
       <c r="B108" s="32" t="str">
         <f t="shared" si="5"/>
@@ -11574,7 +11630,7 @@
       <c r="EQ108" s="32"/>
       <c r="ER108" s="32"/>
     </row>
-    <row r="109" spans="1:148" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:148" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11604,7 +11660,7 @@
       <c r="P109" s="33"/>
       <c r="S109" s="37"/>
     </row>
-    <row r="110" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11634,7 +11690,7 @@
       <c r="P110" s="33"/>
       <c r="S110" s="37"/>
     </row>
-    <row r="111" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11664,7 +11720,7 @@
       <c r="P111" s="33"/>
       <c r="S111" s="37"/>
     </row>
-    <row r="112" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11694,7 +11750,7 @@
       <c r="P112" s="33"/>
       <c r="S112" s="37"/>
     </row>
-    <row r="113" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11724,7 +11780,7 @@
       <c r="P113" s="33"/>
       <c r="S113" s="37"/>
     </row>
-    <row r="114" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11753,7 +11809,7 @@
       </c>
       <c r="P114" s="33"/>
     </row>
-    <row r="115" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="32" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -11782,7 +11838,7 @@
       </c>
       <c r="P115" s="33"/>
     </row>
-    <row r="116" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F116" s="33"/>
       <c r="G116" s="34"/>
       <c r="I116" s="33"/>
@@ -11793,7 +11849,7 @@
       <c r="P116" s="33"/>
       <c r="S116" s="50"/>
     </row>
-    <row r="117" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E117" s="36"/>
       <c r="F117" s="33"/>
       <c r="G117" s="34"/>
@@ -11803,7 +11859,7 @@
       <c r="P117" s="33"/>
       <c r="S117" s="37"/>
     </row>
-    <row r="118" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F118" s="33"/>
       <c r="G118" s="49"/>
       <c r="J118" s="35"/>
@@ -11812,7 +11868,7 @@
       <c r="M118" s="33"/>
       <c r="P118" s="33"/>
     </row>
-    <row r="119" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E119" s="36"/>
       <c r="F119" s="33"/>
       <c r="G119" s="34"/>
@@ -11821,7 +11877,7 @@
       <c r="L119" s="35"/>
       <c r="P119" s="33"/>
     </row>
-    <row r="120" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F120" s="33"/>
       <c r="G120" s="34"/>
       <c r="J120" s="35"/>
@@ -11830,7 +11886,7 @@
       <c r="P120" s="33"/>
       <c r="S120" s="37"/>
     </row>
-    <row r="121" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E121" s="36"/>
       <c r="F121" s="33"/>
       <c r="G121" s="34"/>
@@ -11841,7 +11897,7 @@
       <c r="P121" s="33"/>
       <c r="S121" s="37"/>
     </row>
-    <row r="122" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E122" s="33"/>
       <c r="F122" s="33"/>
       <c r="G122" s="34"/>
@@ -11852,7 +11908,7 @@
       <c r="P122" s="33"/>
       <c r="S122" s="37"/>
     </row>
-    <row r="123" spans="1:148" s="32" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:148" s="32" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="41"/>
       <c r="E123" s="36"/>
       <c r="F123" s="33"/>
@@ -11864,7 +11920,7 @@
       <c r="P123" s="33"/>
       <c r="S123" s="37"/>
     </row>
-    <row r="124" spans="1:148" s="42" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:148" s="42" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="32"/>
       <c r="B124" s="32"/>
       <c r="C124" s="32"/>
@@ -12014,7 +12070,7 @@
       <c r="EQ124" s="32"/>
       <c r="ER124" s="32"/>
     </row>
-    <row r="125" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E125" s="36"/>
       <c r="F125" s="33"/>
       <c r="G125" s="34"/>
@@ -12025,7 +12081,7 @@
       <c r="P125" s="33"/>
       <c r="S125" s="37"/>
     </row>
-    <row r="126" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E126" s="36"/>
       <c r="F126" s="33"/>
       <c r="G126" s="34"/>
@@ -12036,7 +12092,7 @@
       <c r="P126" s="33"/>
       <c r="S126" s="37"/>
     </row>
-    <row r="127" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E127" s="36"/>
       <c r="F127" s="33"/>
       <c r="G127" s="34"/>
@@ -12047,7 +12103,7 @@
       <c r="P127" s="33"/>
       <c r="S127" s="37"/>
     </row>
-    <row r="128" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="32"/>
       <c r="B128" s="32"/>
       <c r="C128" s="32"/>
@@ -12196,7 +12252,7 @@
       <c r="EQ128" s="32"/>
       <c r="ER128" s="32"/>
     </row>
-    <row r="129" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="32"/>
       <c r="B129" s="32"/>
       <c r="C129" s="32"/>
@@ -12345,7 +12401,7 @@
       <c r="EQ129" s="32"/>
       <c r="ER129" s="32"/>
     </row>
-    <row r="130" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="32"/>
       <c r="B130" s="32"/>
       <c r="C130" s="32"/>
@@ -12494,7 +12550,7 @@
       <c r="EQ130" s="32"/>
       <c r="ER130" s="32"/>
     </row>
-    <row r="131" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:148" s="37" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="32"/>
       <c r="B131" s="32"/>
       <c r="C131" s="32"/>
@@ -12644,7 +12700,7 @@
       <c r="EQ131" s="32"/>
       <c r="ER131" s="32"/>
     </row>
-    <row r="132" spans="1:148" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:148" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="32"/>
       <c r="B132" s="32"/>
       <c r="C132" s="32"/>
@@ -12794,7 +12850,7 @@
       <c r="EQ132" s="32"/>
       <c r="ER132" s="32"/>
     </row>
-    <row r="133" spans="1:148" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:148" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="32"/>
       <c r="B133" s="32"/>
       <c r="C133" s="32"/>
@@ -12944,7 +13000,7 @@
       <c r="EQ133" s="32"/>
       <c r="ER133" s="32"/>
     </row>
-    <row r="134" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E134" s="36"/>
       <c r="F134" s="33"/>
       <c r="J134" s="35"/>
@@ -12953,7 +13009,7 @@
       <c r="P134" s="33"/>
       <c r="S134" s="37"/>
     </row>
-    <row r="135" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E135" s="36"/>
       <c r="F135" s="33"/>
       <c r="G135" s="34"/>
@@ -12963,7 +13019,7 @@
       <c r="P135" s="33"/>
       <c r="S135" s="37"/>
     </row>
-    <row r="136" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:148" s="32" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E136" s="36"/>
       <c r="F136" s="33"/>
       <c r="G136" s="34"/>
@@ -12974,7 +13030,7 @@
       <c r="S136" s="37"/>
     </row>
   </sheetData>
-  <sortState ref="A4:ER9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:ER9">
     <sortCondition ref="B4:B9"/>
   </sortState>
   <mergeCells count="1">
@@ -12990,23 +13046,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="9.109375" style="26" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="26" customWidth="1"/>
     <col min="5" max="5" width="55.6640625" customWidth="1"/>
-    <col min="6" max="6" width="45.44140625" customWidth="1"/>
-    <col min="7" max="7" width="0.109375" customWidth="1"/>
+    <col min="6" max="6" width="45.5" customWidth="1"/>
+    <col min="7" max="7" width="0.1640625" customWidth="1"/>
     <col min="8" max="9" width="8.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="63.6" thickTop="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="1:10" ht="64" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="109" t="s">
         <v>65</v>
       </c>
@@ -13022,7 +13078,7 @@
       <c r="I1" s="113"/>
       <c r="J1" s="114"/>
     </row>
-    <row r="2" spans="1:10" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="103" t="s">
         <v>18</v>
       </c>
@@ -13038,7 +13094,7 @@
       <c r="I2" s="115"/>
       <c r="J2" s="116"/>
     </row>
-    <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="106" t="s">
         <v>19</v>
       </c>
@@ -13052,7 +13108,7 @@
       <c r="I3" s="115"/>
       <c r="J3" s="116"/>
     </row>
-    <row r="4" spans="1:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="22" t="s">
         <v>20</v>
@@ -13070,7 +13126,7 @@
       <c r="I4" s="117"/>
       <c r="J4" s="118"/>
     </row>
-    <row r="5" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="62" t="s">
         <v>92</v>
       </c>
@@ -13092,7 +13148,7 @@
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="62" t="s">
         <v>93</v>
       </c>
@@ -13114,7 +13170,7 @@
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="62" t="s">
         <v>36</v>
       </c>
@@ -13131,7 +13187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="62" t="s">
         <v>40</v>
       </c>
@@ -13148,7 +13204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="62" t="s">
         <v>71</v>
       </c>
@@ -13165,7 +13221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="62" t="s">
         <v>66</v>
       </c>
@@ -13182,7 +13238,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="62" t="s">
         <v>72</v>
       </c>
@@ -13199,7 +13255,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="62" t="s">
         <v>73</v>
       </c>
@@ -13216,7 +13272,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="62" t="s">
         <v>94</v>
       </c>
@@ -13237,7 +13293,7 @@
       <c r="H13" s="69"/>
       <c r="I13" s="69"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="62" t="s">
         <v>173</v>
       </c>
@@ -13258,7 +13314,7 @@
       <c r="H14" s="69"/>
       <c r="I14" s="69"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="70" t="s">
         <v>74</v>
       </c>
@@ -13275,7 +13331,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="70" t="s">
         <v>75</v>
       </c>
@@ -13293,7 +13349,7 @@
       </c>
       <c r="F16" s="38"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="70" t="s">
         <v>76</v>
       </c>
@@ -13310,7 +13366,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="70" t="s">
         <v>77</v>
       </c>
@@ -13327,7 +13383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="70" t="s">
         <v>78</v>
       </c>
@@ -13344,7 +13400,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="70" t="s">
         <v>79</v>
       </c>
@@ -13361,7 +13417,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="70" t="s">
         <v>80</v>
       </c>
@@ -13378,7 +13434,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="70" t="s">
         <v>81</v>
       </c>
@@ -13395,7 +13451,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="70" t="s">
         <v>41</v>
       </c>
@@ -13412,7 +13468,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="70" t="s">
         <v>42</v>
       </c>
@@ -13429,7 +13485,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="70" t="s">
         <v>43</v>
       </c>
@@ -13450,7 +13506,7 @@
       <c r="H25" s="69"/>
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="77" t="s">
         <v>82</v>
       </c>
@@ -13468,7 +13524,7 @@
       </c>
       <c r="F26" s="82"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="77" t="s">
         <v>108</v>
       </c>
@@ -13486,7 +13542,7 @@
       </c>
       <c r="F27" s="82"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="77" t="s">
         <v>110</v>
       </c>
@@ -13504,7 +13560,7 @@
       </c>
       <c r="F28" s="82"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="77" t="s">
         <v>111</v>
       </c>
@@ -13522,7 +13578,7 @@
       </c>
       <c r="F29" s="82"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="77" t="s">
         <v>112</v>
       </c>
@@ -13542,7 +13598,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="77" t="s">
         <v>114</v>
       </c>
@@ -13560,7 +13616,7 @@
       </c>
       <c r="F31" s="82"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="77" t="s">
         <v>115</v>
       </c>
@@ -13578,7 +13634,7 @@
       </c>
       <c r="F32" s="82"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="77" t="s">
         <v>116</v>
       </c>
@@ -13596,7 +13652,7 @@
       </c>
       <c r="F33" s="82"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="77" t="s">
         <v>117</v>
       </c>
@@ -13614,7 +13670,7 @@
       </c>
       <c r="F34" s="82"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="77" t="s">
         <v>174</v>
       </c>
@@ -13632,7 +13688,7 @@
       </c>
       <c r="F35" s="82"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="77" t="s">
         <v>175</v>
       </c>
@@ -13650,7 +13706,7 @@
       </c>
       <c r="F36" s="82"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="84" t="s">
         <v>47</v>
       </c>
@@ -13667,7 +13723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="84" t="s">
         <v>59</v>
       </c>
@@ -13684,7 +13740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="84" t="s">
         <v>67</v>
       </c>
@@ -13701,7 +13757,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="84" t="s">
         <v>68</v>
       </c>
@@ -13718,7 +13774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="84" t="s">
         <v>85</v>
       </c>
@@ -13735,7 +13791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="84" t="s">
         <v>118</v>
       </c>
@@ -13752,7 +13808,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="84" t="s">
         <v>119</v>
       </c>
@@ -13769,7 +13825,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="84" t="s">
         <v>120</v>
       </c>
@@ -13786,7 +13842,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="84" t="s">
         <v>134</v>
       </c>
@@ -13803,7 +13859,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="84" t="s">
         <v>136</v>
       </c>
@@ -13820,7 +13876,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="84" t="s">
         <v>137</v>
       </c>
@@ -13837,7 +13893,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="84" t="s">
         <v>138</v>
       </c>
@@ -13854,7 +13910,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="84" t="s">
         <v>139</v>
       </c>
@@ -13871,7 +13927,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="84" t="s">
         <v>140</v>
       </c>
@@ -13888,7 +13944,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="84" t="s">
         <v>141</v>
       </c>
@@ -13905,7 +13961,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="84" t="s">
         <v>142</v>
       </c>
@@ -13922,7 +13978,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="84" t="s">
         <v>52</v>
       </c>
@@ -13939,7 +13995,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="84" t="s">
         <v>53</v>
       </c>
@@ -13956,7 +14012,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="84" t="s">
         <v>54</v>
       </c>
@@ -13973,7 +14029,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="84" t="s">
         <v>55</v>
       </c>
@@ -13990,7 +14046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="84" t="s">
         <v>89</v>
       </c>
@@ -14007,7 +14063,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="84" t="s">
         <v>121</v>
       </c>
@@ -14024,7 +14080,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="84" t="s">
         <v>122</v>
       </c>
@@ -14041,7 +14097,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="84" t="s">
         <v>143</v>
       </c>
@@ -14058,7 +14114,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="84" t="s">
         <v>144</v>
       </c>
@@ -14075,7 +14131,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="84" t="s">
         <v>145</v>
       </c>
@@ -14092,7 +14148,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="84" t="s">
         <v>146</v>
       </c>
@@ -14109,7 +14165,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="84" t="s">
         <v>147</v>
       </c>
@@ -14126,7 +14182,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="84" t="s">
         <v>148</v>
       </c>
@@ -14143,7 +14199,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="84" t="s">
         <v>149</v>
       </c>
@@ -14160,7 +14216,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="84" t="s">
         <v>56</v>
       </c>
@@ -14177,7 +14233,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="84" t="s">
         <v>57</v>
       </c>
@@ -14194,7 +14250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="84" t="s">
         <v>58</v>
       </c>
@@ -14211,7 +14267,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="84" t="s">
         <v>60</v>
       </c>
@@ -14228,7 +14284,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="84" t="s">
         <v>69</v>
       </c>
@@ -14245,7 +14301,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="84" t="s">
         <v>123</v>
       </c>
@@ -14262,7 +14318,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="84" t="s">
         <v>124</v>
       </c>
@@ -14279,7 +14335,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="84" t="s">
         <v>125</v>
       </c>
@@ -14296,7 +14352,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="84" t="s">
         <v>150</v>
       </c>
@@ -14313,7 +14369,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="84" t="s">
         <v>151</v>
       </c>
@@ -14330,7 +14386,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="84" t="s">
         <v>152</v>
       </c>
@@ -14347,7 +14403,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="84" t="s">
         <v>153</v>
       </c>
@@ -14364,7 +14420,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="84" t="s">
         <v>154</v>
       </c>
@@ -14381,7 +14437,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="84" t="s">
         <v>155</v>
       </c>
@@ -14398,7 +14454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="84" t="s">
         <v>156</v>
       </c>
@@ -14415,7 +14471,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="84" t="s">
         <v>157</v>
       </c>
@@ -14432,7 +14488,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="84" t="s">
         <v>48</v>
       </c>
@@ -14449,7 +14505,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="84" t="s">
         <v>49</v>
       </c>
@@ -14466,7 +14522,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="84" t="s">
         <v>50</v>
       </c>
@@ -14483,7 +14539,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="84" t="s">
         <v>51</v>
       </c>
@@ -14500,7 +14556,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="84" t="s">
         <v>90</v>
       </c>
@@ -14517,7 +14573,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="84" t="s">
         <v>126</v>
       </c>
@@ -14534,7 +14590,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="84" t="s">
         <v>127</v>
       </c>
@@ -14551,7 +14607,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="84" t="s">
         <v>158</v>
       </c>
@@ -14568,7 +14624,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="84" t="s">
         <v>159</v>
       </c>
@@ -14585,7 +14641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="84" t="s">
         <v>160</v>
       </c>
@@ -14602,7 +14658,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="84" t="s">
         <v>161</v>
       </c>
@@ -14619,7 +14675,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="84" t="s">
         <v>162</v>
       </c>
@@ -14636,7 +14692,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="84" t="s">
         <v>163</v>
       </c>
@@ -14653,7 +14709,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="84" t="s">
         <v>164</v>
       </c>
@@ -14670,7 +14726,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="84" t="s">
         <v>44</v>
       </c>
@@ -14687,7 +14743,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="84" t="s">
         <v>45</v>
       </c>
@@ -14704,7 +14760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="84" t="s">
         <v>46</v>
       </c>
@@ -14721,7 +14777,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="84" t="s">
         <v>84</v>
       </c>
@@ -14738,7 +14794,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="84" t="s">
         <v>128</v>
       </c>
@@ -14755,7 +14811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="84" t="s">
         <v>129</v>
       </c>
@@ -14772,7 +14828,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="84" t="s">
         <v>130</v>
       </c>
@@ -14789,7 +14845,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="84" t="s">
         <v>131</v>
       </c>
@@ -14806,7 +14862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="84" t="s">
         <v>165</v>
       </c>
@@ -14823,7 +14879,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="84" t="s">
         <v>166</v>
       </c>
@@ -14840,7 +14896,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="84" t="s">
         <v>167</v>
       </c>
@@ -14857,7 +14913,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="84" t="s">
         <v>168</v>
       </c>
@@ -14874,7 +14930,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="84" t="s">
         <v>169</v>
       </c>
@@ -14891,7 +14947,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="84" t="s">
         <v>170</v>
       </c>
@@ -14908,7 +14964,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="84" t="s">
         <v>171</v>
       </c>
@@ -14925,7 +14981,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="84" t="s">
         <v>172</v>
       </c>
@@ -14942,7 +14998,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="84" t="s">
         <v>132</v>
       </c>
@@ -14959,7 +15015,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="75" t="s">
         <v>86</v>
       </c>
@@ -14969,7 +15025,7 @@
       <c r="E115" s="69"/>
       <c r="F115" s="69"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="69"/>
       <c r="B116" s="69"/>
       <c r="C116" s="69"/>
@@ -14977,7 +15033,7 @@
       <c r="E116" s="69"/>
       <c r="F116" s="69"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="69" t="s">
         <v>87</v>
       </c>
@@ -14987,7 +15043,7 @@
       <c r="E117" s="69"/>
       <c r="F117" s="69"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="69" t="s">
         <v>88</v>
       </c>
@@ -14997,7 +15053,7 @@
       <c r="E118" s="69"/>
       <c r="F118" s="69"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="69"/>
       <c r="B119" s="69"/>
       <c r="C119" s="69"/>
@@ -15005,7 +15061,7 @@
       <c r="E119" s="69"/>
       <c r="F119" s="69"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="75" t="s">
         <v>96</v>
       </c>
@@ -15015,7 +15071,7 @@
       <c r="E120" s="69"/>
       <c r="F120" s="69"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="75" t="s">
         <v>97</v>
       </c>
@@ -15025,7 +15081,7 @@
       <c r="E121" s="69"/>
       <c r="F121" s="69"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="75" t="s">
         <v>98</v>
       </c>
@@ -15035,7 +15091,7 @@
       <c r="E122" s="69"/>
       <c r="F122" s="69"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="75" t="s">
         <v>99</v>
       </c>
@@ -15045,7 +15101,7 @@
       <c r="E123" s="69"/>
       <c r="F123" s="69"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="69"/>
       <c r="B124" s="69"/>
       <c r="C124" s="69"/>
@@ -15053,7 +15109,7 @@
       <c r="E124" s="69"/>
       <c r="F124" s="69"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="91" t="s">
         <v>176</v>
       </c>
@@ -15063,7 +15119,7 @@
       <c r="E125" s="91"/>
       <c r="F125" s="69"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="75" t="s">
         <v>177</v>
       </c>
@@ -15073,11 +15129,11 @@
       <c r="E126" s="69"/>
       <c r="F126" s="69"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="31"/>
     </row>
   </sheetData>
-  <sortState ref="A5:J139">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:J139">
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="4">
@@ -15094,23 +15150,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -15142,7 +15198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -15157,7 +15213,7 @@
       <c r="K2" s="51"/>
       <c r="L2" s="51"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -15169,7 +15225,7 @@
       <c r="K3" s="51"/>
       <c r="L3" s="51"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
       <c r="F4" s="1"/>
@@ -15181,7 +15237,7 @@
       <c r="K4" s="51"/>
       <c r="L4" s="51"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="1"/>
@@ -15193,7 +15249,7 @@
       <c r="K5" s="51"/>
       <c r="L5" s="51"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D6" s="51"/>
       <c r="E6" s="51"/>
       <c r="F6" s="1"/>
@@ -15205,7 +15261,7 @@
       <c r="K6" s="51"/>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
       <c r="F7" s="1"/>
@@ -15217,7 +15273,7 @@
       <c r="K7" s="51"/>
       <c r="L7" s="51"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
       <c r="F8" s="1"/>
@@ -15229,7 +15285,7 @@
       <c r="K8" s="51"/>
       <c r="L8" s="51"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
       <c r="F9" s="1"/>
@@ -15241,7 +15297,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="51"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
       <c r="F10" s="1"/>
@@ -15253,7 +15309,7 @@
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
       <c r="F11" s="1"/>
@@ -15265,7 +15321,7 @@
       <c r="K11" s="51"/>
       <c r="L11" s="51"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
       <c r="F12" s="1"/>
@@ -15277,7 +15333,7 @@
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
       <c r="F13" s="1"/>
@@ -15289,7 +15345,7 @@
       <c r="K13" s="51"/>
       <c r="L13" s="51"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D14" s="51"/>
       <c r="E14" s="51"/>
       <c r="F14" s="1"/>
@@ -15301,7 +15357,7 @@
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D15" s="51"/>
       <c r="E15" s="51"/>
       <c r="F15" s="1"/>
@@ -15313,7 +15369,7 @@
       <c r="K15" s="51"/>
       <c r="L15" s="51"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
       <c r="F16" s="1"/>
@@ -15325,7 +15381,7 @@
       <c r="K16" s="51"/>
       <c r="L16" s="51"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C17" s="31"/>
       <c r="D17" s="51"/>
       <c r="E17" s="51"/>
@@ -15338,7 +15394,7 @@
       <c r="K17" s="51"/>
       <c r="L17" s="51"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D18" s="51"/>
       <c r="E18" s="51"/>
       <c r="F18" s="1"/>
@@ -15350,7 +15406,7 @@
       <c r="K18" s="51"/>
       <c r="L18" s="51"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D19" s="51"/>
       <c r="E19" s="51"/>
       <c r="F19" s="1"/>
@@ -15362,7 +15418,7 @@
       <c r="K19" s="51"/>
       <c r="L19" s="51"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D20" s="51"/>
       <c r="E20" s="51"/>
       <c r="F20" s="1"/>
@@ -15374,7 +15430,7 @@
       <c r="K20" s="51"/>
       <c r="L20" s="51"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D21" s="51"/>
       <c r="E21" s="51"/>
       <c r="F21" s="1"/>
@@ -15386,7 +15442,7 @@
       <c r="K21" s="51"/>
       <c r="L21" s="51"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C22" s="31"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
@@ -15399,7 +15455,7 @@
       <c r="K22" s="51"/>
       <c r="L22" s="51"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
       <c r="F23" s="1"/>
@@ -15411,7 +15467,7 @@
       <c r="K23" s="51"/>
       <c r="L23" s="51"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
       <c r="F24" s="1"/>
@@ -15423,7 +15479,7 @@
       <c r="K24" s="51"/>
       <c r="L24" s="51"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D25" s="51"/>
       <c r="E25" s="51"/>
       <c r="F25" s="1"/>
@@ -15435,7 +15491,7 @@
       <c r="K25" s="51"/>
       <c r="L25" s="51"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D26" s="51"/>
       <c r="E26" s="51"/>
       <c r="F26" s="1"/>
@@ -15447,7 +15503,7 @@
       <c r="K26" s="51"/>
       <c r="L26" s="51"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
       <c r="F27" s="1"/>
@@ -15459,7 +15515,7 @@
       <c r="K27" s="51"/>
       <c r="L27" s="51"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D28" s="51"/>
       <c r="E28" s="51"/>
       <c r="F28" s="1"/>
@@ -15471,7 +15527,7 @@
       <c r="K28" s="51"/>
       <c r="L28" s="51"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D29" s="51"/>
       <c r="E29" s="51"/>
       <c r="F29" s="1"/>
@@ -15483,7 +15539,7 @@
       <c r="K29" s="51"/>
       <c r="L29" s="51"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D30" s="51"/>
       <c r="E30" s="51"/>
       <c r="F30" s="1"/>
@@ -15495,7 +15551,7 @@
       <c r="K30" s="51"/>
       <c r="L30" s="51"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D31" s="51"/>
       <c r="E31" s="51"/>
       <c r="F31" s="1"/>
@@ -15507,7 +15563,7 @@
       <c r="K31" s="51"/>
       <c r="L31" s="51"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
       <c r="D32" s="51"/>
       <c r="E32" s="51"/>
       <c r="F32" s="1"/>
@@ -15519,7 +15575,7 @@
       <c r="K32" s="51"/>
       <c r="L32" s="51"/>
     </row>
-    <row r="33" spans="4:12" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:12" ht="23" x14ac:dyDescent="0.25">
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="1"/>
@@ -15531,7 +15587,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="4:12" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:12" ht="23" x14ac:dyDescent="0.25">
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="1"/>
@@ -15543,7 +15599,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="4:12" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="23" x14ac:dyDescent="0.25">
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="1"/>
@@ -15555,7 +15611,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="4:12" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:12" ht="23" x14ac:dyDescent="0.25">
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="1"/>
@@ -15567,7 +15623,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="4:12" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="23" x14ac:dyDescent="0.25">
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="1"/>
@@ -15579,7 +15635,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="4:12" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:12" ht="23" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="1"/>
@@ -15591,7 +15647,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="4:12" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:12" ht="23" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="1"/>
@@ -15603,7 +15659,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="4:12" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:12" ht="23" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="1"/>
@@ -15615,7 +15671,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="4:12" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:12" ht="23" x14ac:dyDescent="0.25">
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="1"/>
@@ -15627,7 +15683,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="4:12" ht="22.2" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:12" ht="23" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="1"/>
@@ -15649,23 +15705,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV642"/>
   <sheetViews>
     <sheetView topLeftCell="A474" workbookViewId="0">
       <selection activeCell="A466" sqref="A466"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="57" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="58" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="58" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="58"/>
+    <col min="5" max="16384" width="9.1640625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="53" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" s="53" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="52" t="s">
         <v>3</v>
       </c>
@@ -15679,7 +15735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="93" t="s">
         <v>178</v>
       </c>
@@ -15693,7 +15749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
         <v>180</v>
       </c>
@@ -15707,7 +15763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="93" t="s">
         <v>182</v>
       </c>
@@ -15721,7 +15777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="93" t="s">
         <v>184</v>
       </c>
@@ -15735,7 +15791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="93" t="s">
         <v>186</v>
       </c>
@@ -15749,7 +15805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="93" t="s">
         <v>188</v>
       </c>
@@ -15763,7 +15819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="93" t="s">
         <v>190</v>
       </c>
@@ -16029,7 +16085,7 @@
       <c r="IU8" s="54"/>
       <c r="IV8" s="54"/>
     </row>
-    <row r="9" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="s">
         <v>192</v>
       </c>
@@ -16043,7 +16099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="93" t="s">
         <v>194</v>
       </c>
@@ -16309,7 +16365,7 @@
       <c r="IU10" s="54"/>
       <c r="IV10" s="54"/>
     </row>
-    <row r="11" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="93" t="s">
         <v>196</v>
       </c>
@@ -16575,7 +16631,7 @@
       <c r="IU11" s="54"/>
       <c r="IV11" s="54"/>
     </row>
-    <row r="12" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="93" t="s">
         <v>198</v>
       </c>
@@ -16841,7 +16897,7 @@
       <c r="IU12" s="54"/>
       <c r="IV12" s="54"/>
     </row>
-    <row r="13" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="93" t="s">
         <v>200</v>
       </c>
@@ -16855,7 +16911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="93" t="s">
         <v>202</v>
       </c>
@@ -16869,7 +16925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="93" t="s">
         <v>204</v>
       </c>
@@ -16883,7 +16939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="93" t="s">
         <v>206</v>
       </c>
@@ -16897,7 +16953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="93" t="s">
         <v>208</v>
       </c>
@@ -16912,7 +16968,7 @@
       </c>
       <c r="E17" s="54"/>
     </row>
-    <row r="18" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="93" t="s">
         <v>210</v>
       </c>
@@ -16926,7 +16982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93" t="s">
         <v>212</v>
       </c>
@@ -16940,7 +16996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="93" t="s">
         <v>214</v>
       </c>
@@ -16954,7 +17010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="93" t="s">
         <v>216</v>
       </c>
@@ -16968,7 +17024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="s">
         <v>218</v>
       </c>
@@ -16982,7 +17038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="93" t="s">
         <v>220</v>
       </c>
@@ -16996,7 +17052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="93" t="s">
         <v>222</v>
       </c>
@@ -17010,7 +17066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="93" t="s">
         <v>224</v>
       </c>
@@ -17024,7 +17080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="93" t="s">
         <v>226</v>
       </c>
@@ -17038,7 +17094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="93" t="s">
         <v>228</v>
       </c>
@@ -17053,7 +17109,7 @@
       </c>
       <c r="E27" s="54"/>
     </row>
-    <row r="28" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="93" t="s">
         <v>230</v>
       </c>
@@ -17067,7 +17123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93" t="s">
         <v>232</v>
       </c>
@@ -17081,7 +17137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="93" t="s">
         <v>234</v>
       </c>
@@ -17095,7 +17151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="93" t="s">
         <v>236</v>
       </c>
@@ -17109,7 +17165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="93" t="s">
         <v>238</v>
       </c>
@@ -17123,7 +17179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="93" t="s">
         <v>240</v>
       </c>
@@ -17137,7 +17193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="93" t="s">
         <v>242</v>
       </c>
@@ -17151,7 +17207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="93" t="s">
         <v>244</v>
       </c>
@@ -17165,7 +17221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="93" t="s">
         <v>246</v>
       </c>
@@ -17179,7 +17235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="93" t="s">
         <v>248</v>
       </c>
@@ -17193,7 +17249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="93" t="s">
         <v>250</v>
       </c>
@@ -17207,7 +17263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93" t="s">
         <v>252</v>
       </c>
@@ -17472,7 +17528,7 @@
       <c r="IU39" s="55"/>
       <c r="IV39" s="55"/>
     </row>
-    <row r="40" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="93" t="s">
         <v>254</v>
       </c>
@@ -17486,7 +17542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="93" t="s">
         <v>256</v>
       </c>
@@ -17751,7 +17807,7 @@
       <c r="IU41" s="55"/>
       <c r="IV41" s="55"/>
     </row>
-    <row r="42" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="93" t="s">
         <v>258</v>
       </c>
@@ -18016,7 +18072,7 @@
       <c r="IU42" s="55"/>
       <c r="IV42" s="55"/>
     </row>
-    <row r="43" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="93" t="s">
         <v>260</v>
       </c>
@@ -18281,7 +18337,7 @@
       <c r="IU43" s="55"/>
       <c r="IV43" s="55"/>
     </row>
-    <row r="44" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="93" t="s">
         <v>262</v>
       </c>
@@ -18295,7 +18351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="93" t="s">
         <v>264</v>
       </c>
@@ -18309,7 +18365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="93" t="s">
         <v>266</v>
       </c>
@@ -18323,7 +18379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>268</v>
       </c>
@@ -18337,7 +18393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="93" t="s">
         <v>270</v>
       </c>
@@ -18351,7 +18407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="93" t="s">
         <v>272</v>
       </c>
@@ -18365,7 +18421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="93" t="s">
         <v>274</v>
       </c>
@@ -18379,7 +18435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="93" t="s">
         <v>276</v>
       </c>
@@ -18393,7 +18449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="93" t="s">
         <v>278</v>
       </c>
@@ -18407,7 +18463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="93" t="s">
         <v>280</v>
       </c>
@@ -18421,7 +18477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="93" t="s">
         <v>282</v>
       </c>
@@ -18435,7 +18491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="93" t="s">
         <v>284</v>
       </c>
@@ -18449,7 +18505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="93" t="s">
         <v>286</v>
       </c>
@@ -18463,7 +18519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="93" t="s">
         <v>288</v>
       </c>
@@ -18477,7 +18533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="93" t="s">
         <v>290</v>
       </c>
@@ -18491,7 +18547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="93" t="s">
         <v>292</v>
       </c>
@@ -18505,7 +18561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="93" t="s">
         <v>294</v>
       </c>
@@ -18519,7 +18575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="93" t="s">
         <v>296</v>
       </c>
@@ -18533,7 +18589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="93" t="s">
         <v>298</v>
       </c>
@@ -18547,7 +18603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="93" t="s">
         <v>300</v>
       </c>
@@ -18561,7 +18617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="93" t="s">
         <v>302</v>
       </c>
@@ -18575,7 +18631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="93" t="s">
         <v>304</v>
       </c>
@@ -18589,7 +18645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="93" t="s">
         <v>306</v>
       </c>
@@ -18855,7 +18911,7 @@
       <c r="IU66" s="54"/>
       <c r="IV66" s="54"/>
     </row>
-    <row r="67" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="93" t="s">
         <v>308</v>
       </c>
@@ -18869,7 +18925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="93" t="s">
         <v>310</v>
       </c>
@@ -18883,7 +18939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="93" t="s">
         <v>312</v>
       </c>
@@ -19149,7 +19205,7 @@
       <c r="IU69" s="54"/>
       <c r="IV69" s="54"/>
     </row>
-    <row r="70" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="93" t="s">
         <v>314</v>
       </c>
@@ -19163,7 +19219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="93" t="s">
         <v>316</v>
       </c>
@@ -19177,7 +19233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="93" t="s">
         <v>318</v>
       </c>
@@ -19191,7 +19247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="93" t="s">
         <v>320</v>
       </c>
@@ -19205,7 +19261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="93" t="s">
         <v>322</v>
       </c>
@@ -19219,7 +19275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="93" t="s">
         <v>324</v>
       </c>
@@ -19233,7 +19289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="93" t="s">
         <v>326</v>
       </c>
@@ -19247,7 +19303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="93" t="s">
         <v>328</v>
       </c>
@@ -19261,7 +19317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="93" t="s">
         <v>330</v>
       </c>
@@ -19275,7 +19331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="93" t="s">
         <v>332</v>
       </c>
@@ -19289,7 +19345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="93" t="s">
         <v>334</v>
       </c>
@@ -19304,7 +19360,7 @@
       </c>
       <c r="E80" s="55"/>
     </row>
-    <row r="81" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="93" t="s">
         <v>336</v>
       </c>
@@ -19319,7 +19375,7 @@
       </c>
       <c r="E81" s="55"/>
     </row>
-    <row r="82" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="93" t="s">
         <v>338</v>
       </c>
@@ -19334,7 +19390,7 @@
       </c>
       <c r="E82" s="55"/>
     </row>
-    <row r="83" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="93" t="s">
         <v>340</v>
       </c>
@@ -19348,7 +19404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="93" t="s">
         <v>342</v>
       </c>
@@ -19363,7 +19419,7 @@
       </c>
       <c r="E84" s="55"/>
     </row>
-    <row r="85" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="93" t="s">
         <v>344</v>
       </c>
@@ -19377,7 +19433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="93" t="s">
         <v>346</v>
       </c>
@@ -19643,7 +19699,7 @@
       <c r="IU86" s="54"/>
       <c r="IV86" s="54"/>
     </row>
-    <row r="87" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="93" t="s">
         <v>348</v>
       </c>
@@ -19657,7 +19713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="93" t="s">
         <v>350</v>
       </c>
@@ -19671,7 +19727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="93" t="s">
         <v>352</v>
       </c>
@@ -19685,7 +19741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="93" t="s">
         <v>354</v>
       </c>
@@ -19699,7 +19755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:256" s="55" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="93" t="s">
         <v>356</v>
       </c>
@@ -19965,7 +20021,7 @@
       <c r="IU91" s="54"/>
       <c r="IV91" s="54"/>
     </row>
-    <row r="92" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="93" t="s">
         <v>358</v>
       </c>
@@ -19979,7 +20035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="93" t="s">
         <v>360</v>
       </c>
@@ -19993,7 +20049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="93" t="s">
         <v>362</v>
       </c>
@@ -20007,7 +20063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:256" s="54" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:256" s="54" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="93" t="s">
         <v>364</v>
       </c>
@@ -20021,7 +20077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:256" s="54" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:256" s="54" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="93" t="s">
         <v>366</v>
       </c>
@@ -20035,7 +20091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="93" t="s">
         <v>368</v>
       </c>
@@ -20049,7 +20105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="93" t="s">
         <v>370</v>
       </c>
@@ -20063,7 +20119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="93" t="s">
         <v>372</v>
       </c>
@@ -20078,7 +20134,7 @@
       </c>
       <c r="E99" s="55"/>
     </row>
-    <row r="100" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="93" t="s">
         <v>374</v>
       </c>
@@ -20092,7 +20148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="93" t="s">
         <v>376</v>
       </c>
@@ -20106,7 +20162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="93" t="s">
         <v>378</v>
       </c>
@@ -20370,7 +20426,7 @@
       <c r="IU102" s="55"/>
       <c r="IV102" s="55"/>
     </row>
-    <row r="103" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="93" t="s">
         <v>380</v>
       </c>
@@ -20384,7 +20440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="93" t="s">
         <v>382</v>
       </c>
@@ -20398,7 +20454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="93" t="s">
         <v>384</v>
       </c>
@@ -20412,7 +20468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="93" t="s">
         <v>386</v>
       </c>
@@ -20426,7 +20482,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="107" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="93" t="s">
         <v>388</v>
       </c>
@@ -20440,7 +20496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="93" t="s">
         <v>390</v>
       </c>
@@ -20454,7 +20510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="93" t="s">
         <v>392</v>
       </c>
@@ -20719,7 +20775,7 @@
       <c r="IU109" s="55"/>
       <c r="IV109" s="55"/>
     </row>
-    <row r="110" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="93" t="s">
         <v>394</v>
       </c>
@@ -20734,7 +20790,7 @@
       </c>
       <c r="E110" s="55"/>
     </row>
-    <row r="111" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="93" t="s">
         <v>396</v>
       </c>
@@ -20748,7 +20804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="93" t="s">
         <v>398</v>
       </c>
@@ -20762,7 +20818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="94" t="s">
         <v>400</v>
       </c>
@@ -20776,7 +20832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="93" t="s">
         <v>402</v>
       </c>
@@ -20790,7 +20846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="93" t="s">
         <v>404</v>
       </c>
@@ -20804,7 +20860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="93" t="s">
         <v>406</v>
       </c>
@@ -20818,7 +20874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="93" t="s">
         <v>408</v>
       </c>
@@ -20832,7 +20888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="93" t="s">
         <v>410</v>
       </c>
@@ -20846,7 +20902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="93" t="s">
         <v>412</v>
       </c>
@@ -20860,7 +20916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="93" t="s">
         <v>414</v>
       </c>
@@ -20874,7 +20930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="93" t="s">
         <v>416</v>
       </c>
@@ -20888,7 +20944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="93" t="s">
         <v>418</v>
       </c>
@@ -20902,7 +20958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="93" t="s">
         <v>420</v>
       </c>
@@ -20916,7 +20972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="93" t="s">
         <v>422</v>
       </c>
@@ -20930,7 +20986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="93" t="s">
         <v>424</v>
       </c>
@@ -20944,7 +21000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="93" t="s">
         <v>426</v>
       </c>
@@ -20958,7 +21014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="93" t="s">
         <v>428</v>
       </c>
@@ -20972,7 +21028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="93" t="s">
         <v>430</v>
       </c>
@@ -20986,7 +21042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="93" t="s">
         <v>432</v>
       </c>
@@ -21000,7 +21056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="93" t="s">
         <v>434</v>
       </c>
@@ -21014,7 +21070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="93" t="s">
         <v>436</v>
       </c>
@@ -21028,7 +21084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="93" t="s">
         <v>438</v>
       </c>
@@ -21042,7 +21098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="97" t="s">
         <v>440</v>
       </c>
@@ -21056,7 +21112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="93" t="s">
         <v>442</v>
       </c>
@@ -21070,7 +21126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="93" t="s">
         <v>444</v>
       </c>
@@ -21084,7 +21140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:256" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:256" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="93" t="s">
         <v>446</v>
       </c>
@@ -21099,7 +21155,7 @@
       </c>
       <c r="E136" s="54"/>
     </row>
-    <row r="137" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="93" t="s">
         <v>448</v>
       </c>
@@ -21113,7 +21169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="93" t="s">
         <v>450</v>
       </c>
@@ -21378,7 +21434,7 @@
       <c r="IU138" s="55"/>
       <c r="IV138" s="55"/>
     </row>
-    <row r="139" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="93" t="s">
         <v>452</v>
       </c>
@@ -21392,7 +21448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="93" t="s">
         <v>454</v>
       </c>
@@ -21406,7 +21462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="93" t="s">
         <v>456</v>
       </c>
@@ -21420,7 +21476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="93" t="s">
         <v>458</v>
       </c>
@@ -21434,7 +21490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="93" t="s">
         <v>460</v>
       </c>
@@ -21448,7 +21504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="93" t="s">
         <v>462</v>
       </c>
@@ -21462,7 +21518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="93" t="s">
         <v>464</v>
       </c>
@@ -21476,7 +21532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="93" t="s">
         <v>466</v>
       </c>
@@ -21741,7 +21797,7 @@
       <c r="IU146" s="55"/>
       <c r="IV146" s="55"/>
     </row>
-    <row r="147" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="93" t="s">
         <v>468</v>
       </c>
@@ -21755,7 +21811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="93" t="s">
         <v>470</v>
       </c>
@@ -21769,7 +21825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="93" t="s">
         <v>472</v>
       </c>
@@ -21783,7 +21839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="93" t="s">
         <v>474</v>
       </c>
@@ -21797,7 +21853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:256" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:256" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="93" t="s">
         <v>476</v>
       </c>
@@ -21811,7 +21867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="93" t="s">
         <v>478</v>
       </c>
@@ -21825,7 +21881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="93" t="s">
         <v>480</v>
       </c>
@@ -21839,7 +21895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="93" t="s">
         <v>482</v>
       </c>
@@ -21853,7 +21909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="93" t="s">
         <v>484</v>
       </c>
@@ -21867,7 +21923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="93" t="s">
         <v>486</v>
       </c>
@@ -21881,7 +21937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="93" t="s">
         <v>488</v>
       </c>
@@ -21895,7 +21951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="93" t="s">
         <v>490</v>
       </c>
@@ -21909,7 +21965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="93" t="s">
         <v>492</v>
       </c>
@@ -21923,7 +21979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:256" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="93" t="s">
         <v>494</v>
       </c>
@@ -21937,7 +21993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="93" t="s">
         <v>496</v>
       </c>
@@ -21951,7 +22007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="93" t="s">
         <v>498</v>
       </c>
@@ -21965,7 +22021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="93" t="s">
         <v>500</v>
       </c>
@@ -21979,7 +22035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="93" t="s">
         <v>502</v>
       </c>
@@ -21993,7 +22049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="93" t="s">
         <v>504</v>
       </c>
@@ -22007,7 +22063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="94" t="s">
         <v>506</v>
       </c>
@@ -22021,7 +22077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="93" t="s">
         <v>508</v>
       </c>
@@ -22035,7 +22091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="93" t="s">
         <v>510</v>
       </c>
@@ -22049,7 +22105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="93" t="s">
         <v>512</v>
       </c>
@@ -22063,7 +22119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="93" t="s">
         <v>514</v>
       </c>
@@ -22077,7 +22133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="93" t="s">
         <v>516</v>
       </c>
@@ -22091,7 +22147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="93" t="s">
         <v>518</v>
       </c>
@@ -22106,7 +22162,7 @@
       </c>
       <c r="E172" s="54"/>
     </row>
-    <row r="173" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="93" t="s">
         <v>519</v>
       </c>
@@ -22120,7 +22176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="93" t="s">
         <v>521</v>
       </c>
@@ -22134,7 +22190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="93" t="s">
         <v>523</v>
       </c>
@@ -22148,7 +22204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:5" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="94" t="s">
         <v>525</v>
       </c>
@@ -22162,7 +22218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="93" t="s">
         <v>527</v>
       </c>
@@ -22176,7 +22232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="93" t="s">
         <v>529</v>
       </c>
@@ -22190,7 +22246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="93" t="s">
         <v>531</v>
       </c>
@@ -22204,7 +22260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="93" t="s">
         <v>533</v>
       </c>
@@ -22218,7 +22274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="93" t="s">
         <v>535</v>
       </c>
@@ -22232,7 +22288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="93" t="s">
         <v>537</v>
       </c>
@@ -22246,7 +22302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="93" t="s">
         <v>538</v>
       </c>
@@ -22260,7 +22316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="93" t="s">
         <v>540</v>
       </c>
@@ -22274,7 +22330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="93" t="s">
         <v>542</v>
       </c>
@@ -22288,7 +22344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="93" t="s">
         <v>544</v>
       </c>
@@ -22302,7 +22358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="93" t="s">
         <v>546</v>
       </c>
@@ -22316,7 +22372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="93" t="s">
         <v>548</v>
       </c>
@@ -22330,7 +22386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="93" t="s">
         <v>550</v>
       </c>
@@ -22344,7 +22400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="93" t="s">
         <v>552</v>
       </c>
@@ -22358,7 +22414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="56" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="93" t="s">
         <v>554</v>
       </c>
@@ -22372,7 +22428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="93" t="s">
         <v>556</v>
       </c>
@@ -22386,7 +22442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="93" t="s">
         <v>558</v>
       </c>
@@ -22400,7 +22456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="93" t="s">
         <v>559</v>
       </c>
@@ -22414,7 +22470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="93" t="s">
         <v>561</v>
       </c>
@@ -22428,7 +22484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="93" t="s">
         <v>563</v>
       </c>
@@ -22442,7 +22498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="93" t="s">
         <v>565</v>
       </c>
@@ -22456,7 +22512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="93" t="s">
         <v>567</v>
       </c>
@@ -22470,7 +22526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="93" t="s">
         <v>569</v>
       </c>
@@ -22484,7 +22540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="93" t="s">
         <v>571</v>
       </c>
@@ -22498,7 +22554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="93" t="s">
         <v>573</v>
       </c>
@@ -22512,7 +22568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="93" t="s">
         <v>575</v>
       </c>
@@ -22526,7 +22582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="93" t="s">
         <v>577</v>
       </c>
@@ -22540,7 +22596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="93" t="s">
         <v>579</v>
       </c>
@@ -22554,7 +22610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="93" t="s">
         <v>581</v>
       </c>
@@ -22568,7 +22624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="93" t="s">
         <v>583</v>
       </c>
@@ -22582,7 +22638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="93" t="s">
         <v>585</v>
       </c>
@@ -22596,7 +22652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="93" t="s">
         <v>587</v>
       </c>
@@ -22610,7 +22666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="93" t="s">
         <v>589</v>
       </c>
@@ -22624,7 +22680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="93" t="s">
         <v>591</v>
       </c>
@@ -22638,7 +22694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="93" t="s">
         <v>593</v>
       </c>
@@ -22652,7 +22708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="93" t="s">
         <v>595</v>
       </c>
@@ -22666,7 +22722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="93" t="s">
         <v>597</v>
       </c>
@@ -22680,7 +22736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="93" t="s">
         <v>599</v>
       </c>
@@ -22694,7 +22750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="93" t="s">
         <v>601</v>
       </c>
@@ -22708,7 +22764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="93" t="s">
         <v>603</v>
       </c>
@@ -22722,7 +22778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="93" t="s">
         <v>605</v>
       </c>
@@ -22736,7 +22792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="93" t="s">
         <v>607</v>
       </c>
@@ -22750,7 +22806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="93" t="s">
         <v>609</v>
       </c>
@@ -22764,7 +22820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="93" t="s">
         <v>611</v>
       </c>
@@ -22778,7 +22834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="93" t="s">
         <v>613</v>
       </c>
@@ -22792,7 +22848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="93" t="s">
         <v>615</v>
       </c>
@@ -22806,7 +22862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="93" t="s">
         <v>617</v>
       </c>
@@ -22820,7 +22876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="93" t="s">
         <v>618</v>
       </c>
@@ -22834,7 +22890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="93" t="s">
         <v>619</v>
       </c>
@@ -22848,7 +22904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="93" t="s">
         <v>621</v>
       </c>
@@ -22862,7 +22918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="93" t="s">
         <v>623</v>
       </c>
@@ -22876,7 +22932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="93" t="s">
         <v>625</v>
       </c>
@@ -22890,7 +22946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="93" t="s">
         <v>627</v>
       </c>
@@ -22904,7 +22960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="93" t="s">
         <v>629</v>
       </c>
@@ -22918,7 +22974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="93" t="s">
         <v>631</v>
       </c>
@@ -22932,7 +22988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="93" t="s">
         <v>633</v>
       </c>
@@ -22946,7 +23002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="93" t="s">
         <v>635</v>
       </c>
@@ -22960,7 +23016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="93" t="s">
         <v>637</v>
       </c>
@@ -22974,7 +23030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="93" t="s">
         <v>639</v>
       </c>
@@ -22988,7 +23044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="93" t="s">
         <v>641</v>
       </c>
@@ -23002,7 +23058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="93" t="s">
         <v>643</v>
       </c>
@@ -23016,7 +23072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="93" t="s">
         <v>645</v>
       </c>
@@ -23030,7 +23086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="93" t="s">
         <v>647</v>
       </c>
@@ -23044,7 +23100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="93" t="s">
         <v>649</v>
       </c>
@@ -23058,7 +23114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="93" t="s">
         <v>651</v>
       </c>
@@ -23072,7 +23128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="93" t="s">
         <v>653</v>
       </c>
@@ -23086,7 +23142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="93" t="s">
         <v>655</v>
       </c>
@@ -23100,7 +23156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="93" t="s">
         <v>657</v>
       </c>
@@ -23114,7 +23170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="93" t="s">
         <v>659</v>
       </c>
@@ -23128,7 +23184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="93" t="s">
         <v>661</v>
       </c>
@@ -23142,7 +23198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="93" t="s">
         <v>663</v>
       </c>
@@ -23156,7 +23212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="93" t="s">
         <v>665</v>
       </c>
@@ -23170,7 +23226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="93" t="s">
         <v>667</v>
       </c>
@@ -23184,7 +23240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="93" t="s">
         <v>669</v>
       </c>
@@ -23198,7 +23254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="93" t="s">
         <v>671</v>
       </c>
@@ -23212,7 +23268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="93" t="s">
         <v>673</v>
       </c>
@@ -23226,7 +23282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="93" t="s">
         <v>675</v>
       </c>
@@ -23240,7 +23296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="93" t="s">
         <v>677</v>
       </c>
@@ -23254,7 +23310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="93" t="s">
         <v>679</v>
       </c>
@@ -23268,7 +23324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="93" t="s">
         <v>681</v>
       </c>
@@ -23282,7 +23338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="93" t="s">
         <v>683</v>
       </c>
@@ -23296,7 +23352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="93" t="s">
         <v>685</v>
       </c>
@@ -23310,7 +23366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="93" t="s">
         <v>687</v>
       </c>
@@ -23324,7 +23380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="93" t="s">
         <v>689</v>
       </c>
@@ -23338,7 +23394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="93" t="s">
         <v>691</v>
       </c>
@@ -23352,7 +23408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="93" t="s">
         <v>693</v>
       </c>
@@ -23366,7 +23422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="93" t="s">
         <v>695</v>
       </c>
@@ -23380,7 +23436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="93" t="s">
         <v>697</v>
       </c>
@@ -23394,7 +23450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="93" t="s">
         <v>699</v>
       </c>
@@ -23408,7 +23464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="93" t="s">
         <v>701</v>
       </c>
@@ -23422,7 +23478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="93" t="s">
         <v>703</v>
       </c>
@@ -23436,7 +23492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="93" t="s">
         <v>705</v>
       </c>
@@ -23450,7 +23506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="94" t="s">
         <v>707</v>
       </c>
@@ -23464,7 +23520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="93" t="s">
         <v>709</v>
       </c>
@@ -23478,7 +23534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="93" t="s">
         <v>711</v>
       </c>
@@ -23492,7 +23548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="93" t="s">
         <v>713</v>
       </c>
@@ -23506,7 +23562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="93" t="s">
         <v>715</v>
       </c>
@@ -23520,7 +23576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="93" t="s">
         <v>717</v>
       </c>
@@ -23534,7 +23590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="93" t="s">
         <v>719</v>
       </c>
@@ -23548,7 +23604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="93" t="s">
         <v>721</v>
       </c>
@@ -23562,7 +23618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="93" t="s">
         <v>723</v>
       </c>
@@ -23576,7 +23632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="93" t="s">
         <v>725</v>
       </c>
@@ -23590,7 +23646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="93" t="s">
         <v>726</v>
       </c>
@@ -23604,7 +23660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="93" t="s">
         <v>728</v>
       </c>
@@ -23618,7 +23674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="93" t="s">
         <v>730</v>
       </c>
@@ -23632,7 +23688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="93" t="s">
         <v>732</v>
       </c>
@@ -23646,7 +23702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="93" t="s">
         <v>734</v>
       </c>
@@ -23660,7 +23716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="93" t="s">
         <v>736</v>
       </c>
@@ -23674,7 +23730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="93" t="s">
         <v>738</v>
       </c>
@@ -23688,7 +23744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="93" t="s">
         <v>740</v>
       </c>
@@ -23702,7 +23758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="93" t="s">
         <v>742</v>
       </c>
@@ -23716,7 +23772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="93" t="s">
         <v>744</v>
       </c>
@@ -23730,7 +23786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="93" t="s">
         <v>746</v>
       </c>
@@ -23744,7 +23800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="93" t="s">
         <v>748</v>
       </c>
@@ -23758,7 +23814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="93" t="s">
         <v>750</v>
       </c>
@@ -23772,7 +23828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="93" t="s">
         <v>752</v>
       </c>
@@ -23786,7 +23842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="93" t="s">
         <v>754</v>
       </c>
@@ -23800,7 +23856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="93" t="s">
         <v>756</v>
       </c>
@@ -23814,7 +23870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="93" t="s">
         <v>758</v>
       </c>
@@ -23828,7 +23884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="93" t="s">
         <v>760</v>
       </c>
@@ -23842,7 +23898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="93" t="s">
         <v>762</v>
       </c>
@@ -23856,7 +23912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="93" t="s">
         <v>764</v>
       </c>
@@ -23870,7 +23926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="93" t="s">
         <v>766</v>
       </c>
@@ -23884,7 +23940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="93" t="s">
         <v>768</v>
       </c>
@@ -23898,7 +23954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="93" t="s">
         <v>770</v>
       </c>
@@ -23912,7 +23968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="93" t="s">
         <v>772</v>
       </c>
@@ -23926,7 +23982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="93" t="s">
         <v>774</v>
       </c>
@@ -23940,7 +23996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="93" t="s">
         <v>776</v>
       </c>
@@ -23954,7 +24010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="93" t="s">
         <v>778</v>
       </c>
@@ -23968,7 +24024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="93" t="s">
         <v>780</v>
       </c>
@@ -23982,7 +24038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="93" t="s">
         <v>782</v>
       </c>
@@ -23996,7 +24052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="93" t="s">
         <v>784</v>
       </c>
@@ -24010,7 +24066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="96" t="s">
         <v>786</v>
       </c>
@@ -24024,7 +24080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="93" t="s">
         <v>788</v>
       </c>
@@ -24038,7 +24094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="93" t="s">
         <v>790</v>
       </c>
@@ -24052,7 +24108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="93" t="s">
         <v>792</v>
       </c>
@@ -24066,7 +24122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="93" t="s">
         <v>794</v>
       </c>
@@ -24080,7 +24136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="93" t="s">
         <v>796</v>
       </c>
@@ -24094,7 +24150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="93" t="s">
         <v>798</v>
       </c>
@@ -24108,7 +24164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="93" t="s">
         <v>800</v>
       </c>
@@ -24122,7 +24178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="93" t="s">
         <v>802</v>
       </c>
@@ -24136,7 +24192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="93" t="s">
         <v>804</v>
       </c>
@@ -24150,7 +24206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="93" t="s">
         <v>806</v>
       </c>
@@ -24164,7 +24220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="93" t="s">
         <v>808</v>
       </c>
@@ -24178,7 +24234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="93" t="s">
         <v>810</v>
       </c>
@@ -24192,7 +24248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="93" t="s">
         <v>812</v>
       </c>
@@ -24206,7 +24262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="93" t="s">
         <v>814</v>
       </c>
@@ -24220,7 +24276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="93" t="s">
         <v>816</v>
       </c>
@@ -24234,7 +24290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="93" t="s">
         <v>818</v>
       </c>
@@ -24248,7 +24304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="93" t="s">
         <v>820</v>
       </c>
@@ -24262,7 +24318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="93" t="s">
         <v>822</v>
       </c>
@@ -24276,7 +24332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="93" t="s">
         <v>824</v>
       </c>
@@ -24290,7 +24346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="93" t="s">
         <v>826</v>
       </c>
@@ -24304,7 +24360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="93" t="s">
         <v>828</v>
       </c>
@@ -24318,7 +24374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="93" t="s">
         <v>830</v>
       </c>
@@ -24332,7 +24388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="93" t="s">
         <v>832</v>
       </c>
@@ -24346,7 +24402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="93" t="s">
         <v>834</v>
       </c>
@@ -24360,7 +24416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="93" t="s">
         <v>836</v>
       </c>
@@ -24374,7 +24430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="96" t="s">
         <v>838</v>
       </c>
@@ -24388,7 +24444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="93" t="s">
         <v>840</v>
       </c>
@@ -24402,7 +24458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="93" t="s">
         <v>842</v>
       </c>
@@ -24416,7 +24472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="93" t="s">
         <v>844</v>
       </c>
@@ -24430,7 +24486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="93" t="s">
         <v>846</v>
       </c>
@@ -24444,7 +24500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="93" t="s">
         <v>847</v>
       </c>
@@ -24458,7 +24514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="93" t="s">
         <v>849</v>
       </c>
@@ -24472,7 +24528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="93" t="s">
         <v>851</v>
       </c>
@@ -24486,7 +24542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="93" t="s">
         <v>853</v>
       </c>
@@ -24500,7 +24556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="93" t="s">
         <v>855</v>
       </c>
@@ -24514,7 +24570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="93" t="s">
         <v>857</v>
       </c>
@@ -24528,7 +24584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="93" t="s">
         <v>859</v>
       </c>
@@ -24542,7 +24598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="93" t="s">
         <v>861</v>
       </c>
@@ -24556,7 +24612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="93" t="s">
         <v>863</v>
       </c>
@@ -24570,7 +24626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="93" t="s">
         <v>865</v>
       </c>
@@ -24584,7 +24640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="93" t="s">
         <v>866</v>
       </c>
@@ -24598,7 +24654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="93" t="s">
         <v>867</v>
       </c>
@@ -24612,7 +24668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="93" t="s">
         <v>868</v>
       </c>
@@ -24626,7 +24682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="93" t="s">
         <v>869</v>
       </c>
@@ -24640,7 +24696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="93" t="s">
         <v>871</v>
       </c>
@@ -24654,7 +24710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="93" t="s">
         <v>873</v>
       </c>
@@ -24668,7 +24724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="93" t="s">
         <v>874</v>
       </c>
@@ -24682,7 +24738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="93" t="s">
         <v>875</v>
       </c>
@@ -24696,7 +24752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="93" t="s">
         <v>876</v>
       </c>
@@ -24710,7 +24766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="93" t="s">
         <v>877</v>
       </c>
@@ -24724,7 +24780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="93" t="s">
         <v>878</v>
       </c>
@@ -24738,7 +24794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="93" t="s">
         <v>879</v>
       </c>
@@ -24752,7 +24808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="93" t="s">
         <v>880</v>
       </c>
@@ -24766,7 +24822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="93" t="s">
         <v>881</v>
       </c>
@@ -24780,7 +24836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="93" t="s">
         <v>882</v>
       </c>
@@ -24794,7 +24850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="93" t="s">
         <v>883</v>
       </c>
@@ -24808,7 +24864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="93" t="s">
         <v>885</v>
       </c>
@@ -24822,7 +24878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="93" t="s">
         <v>887</v>
       </c>
@@ -24836,7 +24892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="93" t="s">
         <v>889</v>
       </c>
@@ -24850,7 +24906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="93" t="s">
         <v>891</v>
       </c>
@@ -24864,7 +24920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A370" s="93" t="s">
         <v>893</v>
       </c>
@@ -24878,7 +24934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="93" t="s">
         <v>895</v>
       </c>
@@ -24892,7 +24948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="93" t="s">
         <v>897</v>
       </c>
@@ -24906,7 +24962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A373" s="93" t="s">
         <v>899</v>
       </c>
@@ -24920,7 +24976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A374" s="93" t="s">
         <v>901</v>
       </c>
@@ -24934,7 +24990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A375" s="93" t="s">
         <v>903</v>
       </c>
@@ -24948,7 +25004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A376" s="93" t="s">
         <v>905</v>
       </c>
@@ -24962,7 +25018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A377" s="93" t="s">
         <v>907</v>
       </c>
@@ -24976,7 +25032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A378" s="93" t="s">
         <v>909</v>
       </c>
@@ -24990,7 +25046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A379" s="93" t="s">
         <v>911</v>
       </c>
@@ -25004,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A380" s="93" t="s">
         <v>913</v>
       </c>
@@ -25018,7 +25074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A381" s="93" t="s">
         <v>915</v>
       </c>
@@ -25032,7 +25088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A382" s="93" t="s">
         <v>917</v>
       </c>
@@ -25046,7 +25102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A383" s="93" t="s">
         <v>919</v>
       </c>
@@ -25060,7 +25116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A384" s="93" t="s">
         <v>921</v>
       </c>
@@ -25074,7 +25130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A385" s="93" t="s">
         <v>923</v>
       </c>
@@ -25088,7 +25144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A386" s="93" t="s">
         <v>925</v>
       </c>
@@ -25102,7 +25158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A387" s="93" t="s">
         <v>927</v>
       </c>
@@ -25116,7 +25172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A388" s="93" t="s">
         <v>929</v>
       </c>
@@ -25130,7 +25186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A389" s="93" t="s">
         <v>931</v>
       </c>
@@ -25144,7 +25200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A390" s="93" t="s">
         <v>933</v>
       </c>
@@ -25158,7 +25214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A391" s="93" t="s">
         <v>935</v>
       </c>
@@ -25172,7 +25228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A392" s="93" t="s">
         <v>937</v>
       </c>
@@ -25186,7 +25242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A393" s="93" t="s">
         <v>939</v>
       </c>
@@ -25200,7 +25256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A394" s="93" t="s">
         <v>941</v>
       </c>
@@ -25214,7 +25270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A395" s="99" t="s">
         <v>1414</v>
       </c>
@@ -25228,7 +25284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A396" s="93" t="s">
         <v>943</v>
       </c>
@@ -25242,7 +25298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A397" s="93" t="s">
         <v>945</v>
       </c>
@@ -25256,7 +25312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A398" s="93" t="s">
         <v>947</v>
       </c>
@@ -25270,7 +25326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A399" s="99" t="s">
         <v>1416</v>
       </c>
@@ -25284,7 +25340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A400" s="93" t="s">
         <v>949</v>
       </c>
@@ -25298,7 +25354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A401" s="93" t="s">
         <v>951</v>
       </c>
@@ -25312,7 +25368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A402" s="93" t="s">
         <v>953</v>
       </c>
@@ -25326,7 +25382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A403" s="93" t="s">
         <v>955</v>
       </c>
@@ -25340,7 +25396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A404" s="93" t="s">
         <v>957</v>
       </c>
@@ -25354,7 +25410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A405" s="93" t="s">
         <v>959</v>
       </c>
@@ -25368,7 +25424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A406" s="93" t="s">
         <v>961</v>
       </c>
@@ -25382,7 +25438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A407" s="93" t="s">
         <v>963</v>
       </c>
@@ -25396,7 +25452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A408" s="93" t="s">
         <v>965</v>
       </c>
@@ -25410,7 +25466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A409" s="93" t="s">
         <v>967</v>
       </c>
@@ -25424,7 +25480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A410" s="93" t="s">
         <v>969</v>
       </c>
@@ -25438,7 +25494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A411" s="93" t="s">
         <v>971</v>
       </c>
@@ -25452,7 +25508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A412" s="93" t="s">
         <v>973</v>
       </c>
@@ -25466,7 +25522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A413" s="93" t="s">
         <v>975</v>
       </c>
@@ -25480,7 +25536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A414" s="93" t="s">
         <v>977</v>
       </c>
@@ -25494,7 +25550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A415" s="93" t="s">
         <v>979</v>
       </c>
@@ -25508,7 +25564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A416" s="93" t="s">
         <v>981</v>
       </c>
@@ -25522,7 +25578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A417" s="93" t="s">
         <v>983</v>
       </c>
@@ -25536,7 +25592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A418" s="93" t="s">
         <v>985</v>
       </c>
@@ -25550,7 +25606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A419" s="94" t="s">
         <v>987</v>
       </c>
@@ -25564,7 +25620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A420" s="93" t="s">
         <v>989</v>
       </c>
@@ -25578,7 +25634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A421" s="93" t="s">
         <v>991</v>
       </c>
@@ -25592,7 +25648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A422" s="93" t="s">
         <v>993</v>
       </c>
@@ -25606,7 +25662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A423" s="93" t="s">
         <v>995</v>
       </c>
@@ -25620,7 +25676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A424" s="93" t="s">
         <v>997</v>
       </c>
@@ -25634,7 +25690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A425" s="93" t="s">
         <v>999</v>
       </c>
@@ -25648,7 +25704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A426" s="93" t="s">
         <v>1001</v>
       </c>
@@ -25662,7 +25718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A427" s="93" t="s">
         <v>1003</v>
       </c>
@@ -25676,7 +25732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A428" s="93" t="s">
         <v>1005</v>
       </c>
@@ -25690,7 +25746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A429" s="93" t="s">
         <v>1007</v>
       </c>
@@ -25704,7 +25760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A430" s="93" t="s">
         <v>1009</v>
       </c>
@@ -25718,7 +25774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A431" s="93" t="s">
         <v>1011</v>
       </c>
@@ -25732,7 +25788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A432" s="93" t="s">
         <v>1013</v>
       </c>
@@ -25746,7 +25802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A433" s="93" t="s">
         <v>1015</v>
       </c>
@@ -25760,7 +25816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A434" s="93" t="s">
         <v>1017</v>
       </c>
@@ -25774,7 +25830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A435" s="93" t="s">
         <v>1019</v>
       </c>
@@ -25788,7 +25844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A436" s="93" t="s">
         <v>1021</v>
       </c>
@@ -25802,7 +25858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A437" s="93" t="s">
         <v>1023</v>
       </c>
@@ -25816,7 +25872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A438" s="94" t="s">
         <v>1024</v>
       </c>
@@ -25830,7 +25886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A439" s="93" t="s">
         <v>1026</v>
       </c>
@@ -25844,7 +25900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A440" s="93" t="s">
         <v>1028</v>
       </c>
@@ -25858,7 +25914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A441" s="93" t="s">
         <v>1030</v>
       </c>
@@ -25872,7 +25928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A442" s="93" t="s">
         <v>1031</v>
       </c>
@@ -25886,7 +25942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A443" s="93" t="s">
         <v>1033</v>
       </c>
@@ -25900,7 +25956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A444" s="93" t="s">
         <v>1035</v>
       </c>
@@ -25914,7 +25970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A445" s="93" t="s">
         <v>1037</v>
       </c>
@@ -25928,7 +25984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A446" s="93" t="s">
         <v>1038</v>
       </c>
@@ -25942,7 +25998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A447" s="93" t="s">
         <v>1040</v>
       </c>
@@ -25956,7 +26012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A448" s="93" t="s">
         <v>1042</v>
       </c>
@@ -25970,7 +26026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A449" s="93" t="s">
         <v>1044</v>
       </c>
@@ -25984,7 +26040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A450" s="93" t="s">
         <v>1046</v>
       </c>
@@ -25998,7 +26054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A451" s="93" t="s">
         <v>1048</v>
       </c>
@@ -26012,7 +26068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A452" s="93" t="s">
         <v>1050</v>
       </c>
@@ -26026,7 +26082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A453" s="93" t="s">
         <v>1052</v>
       </c>
@@ -26040,7 +26096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A454" s="93" t="s">
         <v>1054</v>
       </c>
@@ -26054,7 +26110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A455" s="93" t="s">
         <v>1056</v>
       </c>
@@ -26068,7 +26124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A456" s="93" t="s">
         <v>1058</v>
       </c>
@@ -26082,7 +26138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A457" s="93" t="s">
         <v>1060</v>
       </c>
@@ -26096,7 +26152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A458" s="93" t="s">
         <v>1062</v>
       </c>
@@ -26110,7 +26166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A459" s="93" t="s">
         <v>1064</v>
       </c>
@@ -26124,7 +26180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A460" s="93" t="s">
         <v>1066</v>
       </c>
@@ -26138,7 +26194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A461" s="93" t="s">
         <v>1068</v>
       </c>
@@ -26152,7 +26208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A462" s="93" t="s">
         <v>1070</v>
       </c>
@@ -26166,7 +26222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A463" s="93" t="s">
         <v>1072</v>
       </c>
@@ -26180,7 +26236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A464" s="93" t="s">
         <v>1074</v>
       </c>
@@ -26194,7 +26250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A465" s="100" t="s">
         <v>1444</v>
       </c>
@@ -26208,7 +26264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A466" s="93" t="s">
         <v>1076</v>
       </c>
@@ -26222,7 +26278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A467" s="93" t="s">
         <v>1078</v>
       </c>
@@ -26236,7 +26292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A468" s="93" t="s">
         <v>1080</v>
       </c>
@@ -26250,7 +26306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A469" s="93" t="s">
         <v>1082</v>
       </c>
@@ -26264,7 +26320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A470" s="93" t="s">
         <v>1084</v>
       </c>
@@ -26278,7 +26334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A471" s="93" t="s">
         <v>1086</v>
       </c>
@@ -26292,7 +26348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A472" s="93" t="s">
         <v>1088</v>
       </c>
@@ -26306,7 +26362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A473" s="93" t="s">
         <v>1090</v>
       </c>
@@ -26320,7 +26376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A474" s="93" t="s">
         <v>1092</v>
       </c>
@@ -26334,7 +26390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A475" s="93" t="s">
         <v>1094</v>
       </c>
@@ -26348,7 +26404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A476" s="93" t="s">
         <v>1096</v>
       </c>
@@ -26362,7 +26418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A477" s="93" t="s">
         <v>1098</v>
       </c>
@@ -26376,7 +26432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A478" s="93" t="s">
         <v>1100</v>
       </c>
@@ -26390,7 +26446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A479" s="93" t="s">
         <v>1102</v>
       </c>
@@ -26404,7 +26460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A480" s="93" t="s">
         <v>1104</v>
       </c>
@@ -26418,7 +26474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A481" s="93" t="s">
         <v>1106</v>
       </c>
@@ -26432,7 +26488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A482" s="93" t="s">
         <v>1108</v>
       </c>
@@ -26446,7 +26502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A483" s="93" t="s">
         <v>1110</v>
       </c>
@@ -26460,7 +26516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A484" s="93" t="s">
         <v>1112</v>
       </c>
@@ -26474,7 +26530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A485" s="93" t="s">
         <v>1114</v>
       </c>
@@ -26488,7 +26544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A486" s="93" t="s">
         <v>1116</v>
       </c>
@@ -26502,7 +26558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A487" s="93" t="s">
         <v>1118</v>
       </c>
@@ -26516,7 +26572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A488" s="93" t="s">
         <v>1120</v>
       </c>
@@ -26530,7 +26586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A489" s="93" t="s">
         <v>1122</v>
       </c>
@@ -26544,7 +26600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A490" s="93" t="s">
         <v>1124</v>
       </c>
@@ -26558,7 +26614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A491" s="93" t="s">
         <v>1126</v>
       </c>
@@ -26572,7 +26628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A492" s="93" t="s">
         <v>1127</v>
       </c>
@@ -26586,7 +26642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A493" s="93" t="s">
         <v>1129</v>
       </c>
@@ -26600,7 +26656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A494" s="93" t="s">
         <v>1131</v>
       </c>
@@ -26614,7 +26670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A495" s="93" t="s">
         <v>1133</v>
       </c>
@@ -26628,7 +26684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A496" s="93" t="s">
         <v>1135</v>
       </c>
@@ -26642,7 +26698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A497" s="93" t="s">
         <v>1136</v>
       </c>
@@ -26656,7 +26712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A498" s="93" t="s">
         <v>1138</v>
       </c>
@@ -26670,7 +26726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A499" s="93" t="s">
         <v>1140</v>
       </c>
@@ -26684,7 +26740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A500" s="93" t="s">
         <v>1142</v>
       </c>
@@ -26698,7 +26754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A501" s="93" t="s">
         <v>1144</v>
       </c>
@@ -26712,7 +26768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A502" s="93" t="s">
         <v>1146</v>
       </c>
@@ -26726,7 +26782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A503" s="93" t="s">
         <v>1148</v>
       </c>
@@ -26740,7 +26796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A504" s="93" t="s">
         <v>1150</v>
       </c>
@@ -26754,7 +26810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A505" s="93" t="s">
         <v>1152</v>
       </c>
@@ -26768,7 +26824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A506" s="93" t="s">
         <v>1154</v>
       </c>
@@ -26782,7 +26838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A507" s="93" t="s">
         <v>1156</v>
       </c>
@@ -26796,7 +26852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A508" s="93" t="s">
         <v>1158</v>
       </c>
@@ -26810,7 +26866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A509" s="93" t="s">
         <v>1160</v>
       </c>
@@ -26824,7 +26880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A510" s="93" t="s">
         <v>1162</v>
       </c>
@@ -26838,7 +26894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A511" s="93" t="s">
         <v>1164</v>
       </c>
@@ -26852,7 +26908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A512" s="93" t="s">
         <v>1166</v>
       </c>
@@ -26866,7 +26922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A513" s="93" t="s">
         <v>1167</v>
       </c>
@@ -26880,7 +26936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A514" s="93" t="s">
         <v>1169</v>
       </c>
@@ -26894,7 +26950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A515" s="93" t="s">
         <v>1171</v>
       </c>
@@ -26908,7 +26964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A516" s="93" t="s">
         <v>1173</v>
       </c>
@@ -26922,7 +26978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A517" s="93" t="s">
         <v>1175</v>
       </c>
@@ -26936,7 +26992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A518" s="93" t="s">
         <v>1177</v>
       </c>
@@ -26950,7 +27006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A519" s="93" t="s">
         <v>1179</v>
       </c>
@@ -26964,7 +27020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A520" s="93" t="s">
         <v>1181</v>
       </c>
@@ -26978,7 +27034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A521" s="93" t="s">
         <v>1183</v>
       </c>
@@ -26992,7 +27048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A522" s="93" t="s">
         <v>1185</v>
       </c>
@@ -27006,7 +27062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A523" s="93" t="s">
         <v>1187</v>
       </c>
@@ -27020,7 +27076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A524" s="93" t="s">
         <v>1189</v>
       </c>
@@ -27034,7 +27090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A525" s="93" t="s">
         <v>1191</v>
       </c>
@@ -27048,7 +27104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A526" s="93" t="s">
         <v>1193</v>
       </c>
@@ -27062,7 +27118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A527" s="93" t="s">
         <v>1195</v>
       </c>
@@ -27076,7 +27132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A528" s="93" t="s">
         <v>1196</v>
       </c>
@@ -27090,7 +27146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A529" s="93" t="s">
         <v>1198</v>
       </c>
@@ -27104,7 +27160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A530" s="93" t="s">
         <v>1200</v>
       </c>
@@ -27118,7 +27174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A531" s="93" t="s">
         <v>1202</v>
       </c>
@@ -27132,7 +27188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A532" s="93" t="s">
         <v>1204</v>
       </c>
@@ -27146,7 +27202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A533" s="93" t="s">
         <v>1206</v>
       </c>
@@ -27160,7 +27216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A534" s="93" t="s">
         <v>1208</v>
       </c>
@@ -27174,7 +27230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A535" s="93" t="s">
         <v>1210</v>
       </c>
@@ -27188,7 +27244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A536" s="93" t="s">
         <v>1212</v>
       </c>
@@ -27202,7 +27258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A537" s="93" t="s">
         <v>1214</v>
       </c>
@@ -27216,7 +27272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A538" s="93" t="s">
         <v>1216</v>
       </c>
@@ -27230,7 +27286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A539" s="93" t="s">
         <v>1218</v>
       </c>
@@ -27244,7 +27300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A540" s="93" t="s">
         <v>1220</v>
       </c>
@@ -27258,7 +27314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A541" s="93" t="s">
         <v>1222</v>
       </c>
@@ -27272,7 +27328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A542" s="93" t="s">
         <v>1224</v>
       </c>
@@ -27286,7 +27342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A543" s="93" t="s">
         <v>1226</v>
       </c>
@@ -27300,7 +27356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A544" s="93" t="s">
         <v>1228</v>
       </c>
@@ -27314,7 +27370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A545" s="93" t="s">
         <v>1230</v>
       </c>
@@ -27328,7 +27384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A546" s="93" t="s">
         <v>1232</v>
       </c>
@@ -27342,7 +27398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A547" s="93" t="s">
         <v>1234</v>
       </c>
@@ -27356,7 +27412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A548" s="93" t="s">
         <v>1236</v>
       </c>
@@ -27370,7 +27426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A549" s="93" t="s">
         <v>1238</v>
       </c>
@@ -27384,7 +27440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A550" s="93" t="s">
         <v>1240</v>
       </c>
@@ -27398,7 +27454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A551" s="93" t="s">
         <v>1242</v>
       </c>
@@ -27412,7 +27468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A552" s="93" t="s">
         <v>1244</v>
       </c>
@@ -27426,7 +27482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A553" s="93" t="s">
         <v>1246</v>
       </c>
@@ -27440,7 +27496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A554" s="93" t="s">
         <v>1248</v>
       </c>
@@ -27454,7 +27510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A555" s="93" t="s">
         <v>1250</v>
       </c>
@@ -27468,7 +27524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A556" s="93" t="s">
         <v>1252</v>
       </c>
@@ -27482,7 +27538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A557" s="93" t="s">
         <v>1254</v>
       </c>
@@ -27496,7 +27552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A558" s="93" t="s">
         <v>1256</v>
       </c>
@@ -27510,7 +27566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A559" s="93" t="s">
         <v>1258</v>
       </c>
@@ -27524,7 +27580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A560" s="93" t="s">
         <v>1260</v>
       </c>
@@ -27538,7 +27594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A561" s="93" t="s">
         <v>1262</v>
       </c>
@@ -27552,7 +27608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A562" s="93" t="s">
         <v>1264</v>
       </c>
@@ -27566,7 +27622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A563" s="93" t="s">
         <v>1266</v>
       </c>
@@ -27580,7 +27636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A564" s="93" t="s">
         <v>1268</v>
       </c>
@@ -27594,7 +27650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A565" s="93" t="s">
         <v>1270</v>
       </c>
@@ -27608,7 +27664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A566" s="93" t="s">
         <v>1272</v>
       </c>
@@ -27622,7 +27678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A567" s="93" t="s">
         <v>1274</v>
       </c>
@@ -27636,7 +27692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A568" s="93" t="s">
         <v>1276</v>
       </c>
@@ -27650,7 +27706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A569" s="93" t="s">
         <v>1278</v>
       </c>
@@ -27664,7 +27720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A570" s="93" t="s">
         <v>1280</v>
       </c>
@@ -27678,7 +27734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A571" s="93" t="s">
         <v>1282</v>
       </c>
@@ -27692,7 +27748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A572" s="93" t="s">
         <v>1284</v>
       </c>
@@ -27706,7 +27762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A573" s="93" t="s">
         <v>1286</v>
       </c>
@@ -27720,7 +27776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A574" s="93" t="s">
         <v>1288</v>
       </c>
@@ -27734,7 +27790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A575" s="93" t="s">
         <v>1290</v>
       </c>
@@ -27748,7 +27804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A576" s="93" t="s">
         <v>1292</v>
       </c>
@@ -27762,7 +27818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A577" s="93" t="s">
         <v>1294</v>
       </c>
@@ -27776,7 +27832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A578" s="93" t="s">
         <v>1296</v>
       </c>
@@ -27790,7 +27846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A579" s="93" t="s">
         <v>1298</v>
       </c>
@@ -27804,7 +27860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A580" s="93" t="s">
         <v>1300</v>
       </c>
@@ -27818,7 +27874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A581" s="93" t="s">
         <v>1302</v>
       </c>
@@ -27832,7 +27888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A582" s="93" t="s">
         <v>1304</v>
       </c>
@@ -27846,7 +27902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A583" s="93" t="s">
         <v>1306</v>
       </c>
@@ -27860,7 +27916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A584" s="93" t="s">
         <v>1308</v>
       </c>
@@ -27874,7 +27930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A585" s="93" t="s">
         <v>1310</v>
       </c>
@@ -27888,7 +27944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A586" s="93" t="s">
         <v>1312</v>
       </c>
@@ -27902,7 +27958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A587" s="93" t="s">
         <v>1314</v>
       </c>
@@ -27916,7 +27972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A588" s="93" t="s">
         <v>1316</v>
       </c>
@@ -27930,7 +27986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A589" s="93" t="s">
         <v>1318</v>
       </c>
@@ -27944,7 +28000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A590" s="93" t="s">
         <v>1320</v>
       </c>
@@ -27958,7 +28014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A591" s="93" t="s">
         <v>1322</v>
       </c>
@@ -27972,7 +28028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A592" s="93" t="s">
         <v>1324</v>
       </c>
@@ -27986,7 +28042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A593" s="93" t="s">
         <v>1325</v>
       </c>
@@ -28000,7 +28056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A594" s="93" t="s">
         <v>1327</v>
       </c>
@@ -28014,7 +28070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A595" s="93" t="s">
         <v>1329</v>
       </c>
@@ -28028,7 +28084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A596" s="93" t="s">
         <v>1331</v>
       </c>
@@ -28042,7 +28098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A597" s="93" t="s">
         <v>1333</v>
       </c>
@@ -28056,7 +28112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A598" s="93" t="s">
         <v>1335</v>
       </c>
@@ -28070,7 +28126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A599" s="93" t="s">
         <v>1336</v>
       </c>
@@ -28084,7 +28140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A600" s="93" t="s">
         <v>1338</v>
       </c>
@@ -28098,7 +28154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A601" s="93" t="s">
         <v>1340</v>
       </c>
@@ -28112,7 +28168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A602" s="93" t="s">
         <v>1342</v>
       </c>
@@ -28126,7 +28182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A603" s="93" t="s">
         <v>1344</v>
       </c>
@@ -28140,7 +28196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A604" s="93" t="s">
         <v>1346</v>
       </c>
@@ -28154,7 +28210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A605" s="93" t="s">
         <v>1348</v>
       </c>
@@ -28168,7 +28224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A606" s="93" t="s">
         <v>1349</v>
       </c>
@@ -28182,7 +28238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A607" s="93" t="s">
         <v>1350</v>
       </c>
@@ -28196,7 +28252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A608" s="93" t="s">
         <v>1352</v>
       </c>
@@ -28210,7 +28266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A609" s="93" t="s">
         <v>1353</v>
       </c>
@@ -28224,7 +28280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A610" s="93" t="s">
         <v>1354</v>
       </c>
@@ -28238,7 +28294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A611" s="93" t="s">
         <v>1355</v>
       </c>
@@ -28252,7 +28308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A612" s="93" t="s">
         <v>1356</v>
       </c>
@@ -28266,7 +28322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A613" s="93" t="s">
         <v>1358</v>
       </c>
@@ -28280,7 +28336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A614" s="93" t="s">
         <v>1359</v>
       </c>
@@ -28294,7 +28350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A615" s="93" t="s">
         <v>1360</v>
       </c>
@@ -28308,7 +28364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A616" s="93" t="s">
         <v>1362</v>
       </c>
@@ -28322,7 +28378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A617" s="93" t="s">
         <v>1363</v>
       </c>
@@ -28336,7 +28392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A618" s="93" t="s">
         <v>1364</v>
       </c>
@@ -28350,7 +28406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A619" s="93" t="s">
         <v>1366</v>
       </c>
@@ -28364,7 +28420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A620" s="93" t="s">
         <v>1368</v>
       </c>
@@ -28378,7 +28434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A621" s="93" t="s">
         <v>1370</v>
       </c>
@@ -28392,7 +28448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A622" s="93" t="s">
         <v>1372</v>
       </c>
@@ -28406,7 +28462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A623" s="93" t="s">
         <v>1374</v>
       </c>
@@ -28420,7 +28476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A624" s="93" t="s">
         <v>1376</v>
       </c>
@@ -28434,7 +28490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A625" s="93" t="s">
         <v>1378</v>
       </c>
@@ -28448,7 +28504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A626" s="93" t="s">
         <v>1380</v>
       </c>
@@ -28462,7 +28518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A627" s="93" t="s">
         <v>1382</v>
       </c>
@@ -28476,7 +28532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A628" s="93" t="s">
         <v>1384</v>
       </c>
@@ -28490,7 +28546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A629" s="96" t="s">
         <v>1412</v>
       </c>
@@ -28504,7 +28560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A630" s="93" t="s">
         <v>1386</v>
       </c>
@@ -28518,7 +28574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A631" s="93" t="s">
         <v>1388</v>
       </c>
@@ -28532,7 +28588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A632" s="93" t="s">
         <v>1389</v>
       </c>
@@ -28546,7 +28602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A633" s="93" t="s">
         <v>1391</v>
       </c>
@@ -28560,7 +28616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A634" s="93" t="s">
         <v>1393</v>
       </c>
@@ -28574,7 +28630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A635" s="93" t="s">
         <v>1395</v>
       </c>
@@ -28588,7 +28644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A636" s="93" t="s">
         <v>1397</v>
       </c>
@@ -28602,7 +28658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A637" s="93" t="s">
         <v>1399</v>
       </c>
@@ -28616,7 +28672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A638" s="93" t="s">
         <v>1401</v>
       </c>
@@ -28630,7 +28686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A639" s="93" t="s">
         <v>1403</v>
       </c>
@@ -28644,7 +28700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A640" s="93" t="s">
         <v>1405</v>
       </c>
@@ -28658,7 +28714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A641" s="93" t="s">
         <v>1407</v>
       </c>
@@ -28672,7 +28728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A642" s="93" t="s">
         <v>1409</v>
       </c>
@@ -28687,7 +28743,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:IV7">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:IV7">
     <sortCondition ref="A7"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
